--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.1/percents/scores-5.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.1/percents/scores-5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="159">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,52 +46,58 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>killing</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>die</t>
+    <t>horrible</t>
   </si>
   <si>
     <t>threat</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
+    <t>shortage</t>
+  </si>
+  <si>
     <t>fear</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>suffering</t>
+    <t>infected</t>
   </si>
   <si>
     <t>uncertainty</t>
@@ -100,12 +106,12 @@
     <t>crude</t>
   </si>
   <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
     <t>struggling</t>
   </si>
   <si>
+    <t>anxiety</t>
+  </si>
+  <si>
     <t>stress</t>
   </si>
   <si>
@@ -115,30 +121,27 @@
     <t>fraud</t>
   </si>
   <si>
-    <t>inc</t>
-  </si>
-  <si>
-    <t>scared</t>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>banned</t>
   </si>
   <si>
     <t>illegal</t>
   </si>
   <si>
+    <t>crash</t>
+  </si>
+  <si>
     <t>suffer</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
     <t>threats</t>
   </si>
   <si>
-    <t>closure</t>
-  </si>
-  <si>
     <t>selfish</t>
   </si>
   <si>
@@ -148,289 +151,322 @@
     <t>awful</t>
   </si>
   <si>
-    <t>isolation</t>
-  </si>
-  <si>
     <t>falling</t>
   </si>
   <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>empty</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>0.95-negative</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>treat</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>warehouse</t>
+  </si>
+  <si>
+    <t>investing</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>purchases</t>
+  </si>
+  <si>
+    <t>cope</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>dinner</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>stable</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>appreciation</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>marketplace</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>dedicated</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>offer</t>
+  </si>
+  <si>
+    <t>selling</t>
+  </si>
+  <si>
+    <t>experts</t>
+  </si>
+  <si>
+    <t>wear</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>cbc</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>county</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fair</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>goods</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>0.95-negative</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>treat</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>card</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>created</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>investing</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>stable</t>
-  </si>
-  <si>
-    <t>appreciation</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>dedicated</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
-    <t>assure</t>
-  </si>
-  <si>
-    <t>affordable</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>trust</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>art</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>overall</t>
-  </si>
-  <si>
-    <t>selling</t>
-  </si>
-  <si>
-    <t>experts</t>
-  </si>
-  <si>
-    <t>changed</t>
-  </si>
-  <si>
-    <t>commerce</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fair</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>milk</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>major</t>
-  </si>
-  <si>
-    <t>tested</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>employees</t>
-  </si>
-  <si>
-    <t>says</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>going</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>supermarket</t>
   </si>
   <si>
     <t>co</t>
@@ -812,7 +848,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS91"/>
+  <dimension ref="A1:BS104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -820,28 +856,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="S1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AB1" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="AK1" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="AT1" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="BC1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="BL1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -1043,13 +1079,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01360501097445274</v>
+        <v>0.01448689216766321</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1061,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K3">
-        <v>0.006251860261104213</v>
+        <v>0.007110502565207009</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1085,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.1147450555265871</v>
+        <v>0.09617239760201228</v>
       </c>
       <c r="U3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1109,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC3">
-        <v>0.02929362366188706</v>
+        <v>0.0262067110463723</v>
       </c>
       <c r="AD3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -1133,19 +1169,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.07891046174317988</v>
+        <v>0.06720013074788904</v>
       </c>
       <c r="AM3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AN3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -1157,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU3">
-        <v>0.02138651361222403</v>
+        <v>0.019567201789318</v>
       </c>
       <c r="AV3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX3">
         <v>1</v>
@@ -1181,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.06192232331329863</v>
+        <v>0.05394345326400578</v>
       </c>
       <c r="BE3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="BF3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -1205,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="BM3">
-        <v>0.01824549942253693</v>
+        <v>0.01673225597623156</v>
       </c>
       <c r="BN3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BO3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -1229,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1237,13 +1273,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.005049920363449526</v>
+        <v>0.005497499928662148</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1255,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K4">
-        <v>0.004906310451283018</v>
+        <v>0.004870474174549358</v>
       </c>
       <c r="L4">
         <v>10</v>
@@ -1285,13 +1321,13 @@
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.05117295911397169</v>
+        <v>0.04682152229923771</v>
       </c>
       <c r="U4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1303,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC4">
-        <v>0.02440483949196041</v>
+        <v>0.0198801042418434</v>
       </c>
       <c r="AD4">
         <v>10</v>
@@ -1333,13 +1369,13 @@
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.0414499279581562</v>
+        <v>0.03862181235732072</v>
       </c>
       <c r="AM4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -1351,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AU4">
-        <v>0.01863889898115203</v>
+        <v>0.0157552143177104</v>
       </c>
       <c r="AV4">
         <v>10</v>
@@ -1381,13 +1417,13 @@
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.03684052174494763</v>
+        <v>0.03486991711527084</v>
       </c>
       <c r="BE4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BF4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BG4">
         <v>0</v>
@@ -1399,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BM4">
-        <v>0.01634844129843487</v>
+        <v>0.01399396375428373</v>
       </c>
       <c r="BN4">
         <v>10</v>
@@ -1431,13 +1467,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.004095360460854389</v>
+        <v>0.003216730096426743</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1449,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K5">
-        <v>0.004046913998736598</v>
+        <v>0.004017654031959402</v>
       </c>
       <c r="L5">
         <v>8</v>
@@ -1479,13 +1515,13 @@
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.04274067512685897</v>
+        <v>0.03369287187897799</v>
       </c>
       <c r="U5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1497,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC5">
-        <v>0.02169896375667178</v>
+        <v>0.01783407144358488</v>
       </c>
       <c r="AD5">
         <v>8</v>
@@ -1527,13 +1563,13 @@
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.035547584570869</v>
+        <v>0.03060820943246305</v>
       </c>
       <c r="AM5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AN5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1545,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AU5">
-        <v>0.01735773639354015</v>
+        <v>0.0147379366503857</v>
       </c>
       <c r="AV5">
         <v>8</v>
@@ -1575,13 +1611,13 @@
         <v>10</v>
       </c>
       <c r="BD5">
-        <v>0.03213754959621801</v>
+        <v>0.0291967777551977</v>
       </c>
       <c r="BE5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BF5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -1593,13 +1629,13 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BM5">
-        <v>0.01563323064332165</v>
+        <v>0.01341594521564138</v>
       </c>
       <c r="BN5">
         <v>8</v>
@@ -1625,7 +1661,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.003228049397079852</v>
+        <v>0.003149886551456463</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -1643,13 +1679,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K6">
-        <v>0.004041781714100092</v>
+        <v>0.004012512220807843</v>
       </c>
       <c r="L6">
         <v>8</v>
@@ -1673,7 +1709,7 @@
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.03711927338878868</v>
+        <v>0.03211100868984581</v>
       </c>
       <c r="U6">
         <v>6</v>
@@ -1691,13 +1727,13 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC6">
-        <v>0.02162351188694508</v>
+        <v>0.01777637978601905</v>
       </c>
       <c r="AD6">
         <v>8</v>
@@ -1721,7 +1757,7 @@
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.0328092350105966</v>
+        <v>0.02887016277803187</v>
       </c>
       <c r="AM6">
         <v>6</v>
@@ -1739,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AU6">
-        <v>0.01728265723448068</v>
+        <v>0.01467751792165733</v>
       </c>
       <c r="AV6">
         <v>8</v>
@@ -1769,7 +1805,7 @@
         <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.03076597120106705</v>
+        <v>0.02738726710941889</v>
       </c>
       <c r="BE6">
         <v>6</v>
@@ -1787,13 +1823,13 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="BM6">
-        <v>0.01555829953955508</v>
+        <v>0.01335436207872033</v>
       </c>
       <c r="BN6">
         <v>8</v>
@@ -1819,7 +1855,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.00230428320230375</v>
+        <v>0.002296195265690085</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1840,16 +1876,16 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K7">
-        <v>0.003591554349280858</v>
+        <v>0.004007370409656283</v>
       </c>
       <c r="L7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1861,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.02967906548957328</v>
+        <v>0.02824672085682705</v>
       </c>
       <c r="U7">
         <v>4</v>
@@ -1888,16 +1924,16 @@
         <v>0</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC7">
-        <v>0.01996876654039396</v>
+        <v>0.01771868812845321</v>
       </c>
       <c r="AD7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -1909,13 +1945,13 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.02802359532696168</v>
+        <v>0.02718885482812845</v>
       </c>
       <c r="AM7">
         <v>4</v>
@@ -1936,16 +1972,16 @@
         <v>0</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AU7">
-        <v>0.01634175930443686</v>
+        <v>0.01461709919292895</v>
       </c>
       <c r="AV7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX7">
         <v>1</v>
@@ -1957,13 +1993,13 @@
         <v>0</v>
       </c>
       <c r="BA7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.02723878508301226</v>
+        <v>0.02670481300861105</v>
       </c>
       <c r="BE7">
         <v>4</v>
@@ -1984,16 +2020,16 @@
         <v>0</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BM7">
-        <v>0.01490096979693221</v>
+        <v>0.01329277894179929</v>
       </c>
       <c r="BN7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BO7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP7">
         <v>1</v>
@@ -2005,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="BS7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:71">
@@ -2013,7 +2049,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.002273489494484714</v>
+        <v>0.002265344398780725</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2034,10 +2070,10 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K8">
-        <v>0.003581289780007846</v>
+        <v>0.003565534904906624</v>
       </c>
       <c r="L8">
         <v>7</v>
@@ -2055,13 +2091,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.02868698940167596</v>
+        <v>0.02751663015415067</v>
       </c>
       <c r="U8">
         <v>4</v>
@@ -2082,10 +2118,10 @@
         <v>6</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC8">
-        <v>0.01981786280094056</v>
+        <v>0.01652259675662644</v>
       </c>
       <c r="AD8">
         <v>7</v>
@@ -2103,13 +2139,13 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.0269068916233094</v>
+        <v>0.02638667944916021</v>
       </c>
       <c r="AM8">
         <v>4</v>
@@ -2130,10 +2166,10 @@
         <v>6</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AU8">
-        <v>0.01619160098631792</v>
+        <v>0.01392720417308148</v>
       </c>
       <c r="AV8">
         <v>7</v>
@@ -2151,13 +2187,13 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.02606299905233743</v>
+        <v>0.02586965424902083</v>
       </c>
       <c r="BE8">
         <v>4</v>
@@ -2178,10 +2214,10 @@
         <v>6</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BM8">
-        <v>0.01475110758939907</v>
+        <v>0.01281902026171498</v>
       </c>
       <c r="BN8">
         <v>7</v>
@@ -2199,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -2207,13 +2243,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.001842400104915698</v>
+        <v>0.002265344398780725</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2225,19 +2261,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9">
-        <v>0.002685967335005885</v>
+        <v>0.003118557589005407</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -2249,19 +2285,19 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.02595896153996558</v>
+        <v>0.02751663015415067</v>
       </c>
       <c r="U9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -2273,19 +2309,19 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC9">
-        <v>0.01658382397756503</v>
+        <v>0.01526881372723382</v>
       </c>
       <c r="AD9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF9">
         <v>1</v>
@@ -2297,19 +2333,19 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.02563077548514422</v>
+        <v>0.02638667944916021</v>
       </c>
       <c r="AM9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -2321,19 +2357,19 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AU9">
-        <v>0.01438488428528975</v>
+        <v>0.01317689042450564</v>
       </c>
       <c r="AV9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX9">
         <v>1</v>
@@ -2345,19 +2381,19 @@
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.02547519202398486</v>
+        <v>0.02586965424902083</v>
       </c>
       <c r="BE9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG9">
         <v>0</v>
@@ -2369,19 +2405,19 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BM9">
-        <v>0.01351137920791989</v>
+        <v>0.01228367844470962</v>
       </c>
       <c r="BN9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP9">
         <v>1</v>
@@ -2393,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -2401,7 +2437,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.001837267820279193</v>
+        <v>0.001835927850321756</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2419,13 +2455,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K10">
-        <v>0.002246004539459663</v>
+        <v>0.00222974476835453</v>
       </c>
       <c r="L10">
         <v>4</v>
@@ -2449,7 +2485,7 @@
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.02579361552531603</v>
+        <v>0.02552364534575159</v>
       </c>
       <c r="U10">
         <v>3</v>
@@ -2467,13 +2503,13 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AC10">
-        <v>0.01507998237046732</v>
+        <v>0.01281893932601444</v>
       </c>
       <c r="AD10">
         <v>4</v>
@@ -2497,7 +2533,7 @@
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.02544465820120218</v>
+        <v>0.02547917752596115</v>
       </c>
       <c r="AM10">
         <v>3</v>
@@ -2515,13 +2551,13 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AU10">
-        <v>0.01359414467336487</v>
+        <v>0.01173668165608232</v>
       </c>
       <c r="AV10">
         <v>4</v>
@@ -2545,7 +2581,7 @@
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.02527922768553905</v>
+        <v>0.02545883063531772</v>
       </c>
       <c r="BE10">
         <v>3</v>
@@ -2563,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BM10">
-        <v>0.01300391167283015</v>
+        <v>0.01127457794761996</v>
       </c>
       <c r="BN10">
         <v>4</v>
@@ -2595,7 +2631,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.001832135535642687</v>
+        <v>0.001835927850321756</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -2613,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K11">
-        <v>0.002246004539459663</v>
+        <v>0.00222974476835453</v>
       </c>
       <c r="L11">
         <v>4</v>
@@ -2643,7 +2679,7 @@
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.02562826951066647</v>
+        <v>0.02552364534575159</v>
       </c>
       <c r="U11">
         <v>3</v>
@@ -2661,13 +2697,13 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AC11">
-        <v>0.01507998237046732</v>
+        <v>0.01281893932601444</v>
       </c>
       <c r="AD11">
         <v>4</v>
@@ -2691,7 +2727,7 @@
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.02525854091726013</v>
+        <v>0.02547917752596115</v>
       </c>
       <c r="AM11">
         <v>3</v>
@@ -2709,13 +2745,13 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AU11">
-        <v>0.01359414467336487</v>
+        <v>0.01173668165608232</v>
       </c>
       <c r="AV11">
         <v>4</v>
@@ -2739,7 +2775,7 @@
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.02508326334709325</v>
+        <v>0.02545883063531772</v>
       </c>
       <c r="BE11">
         <v>3</v>
@@ -2757,13 +2793,13 @@
         <v>0</v>
       </c>
       <c r="BJ11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BM11">
-        <v>0.01300391167283015</v>
+        <v>0.01127457794761996</v>
       </c>
       <c r="BN11">
         <v>4</v>
@@ -2789,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.001806474112460157</v>
+        <v>0.001835927850321756</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -2807,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K12">
-        <v>0.001795777174640429</v>
+        <v>0.001782767452453312</v>
       </c>
       <c r="L12">
         <v>3</v>
@@ -2837,7 +2873,7 @@
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.0248015394374187</v>
+        <v>0.02552364534575159</v>
       </c>
       <c r="U12">
         <v>3</v>
@@ -2855,13 +2891,13 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC12">
-        <v>0.0134252370239162</v>
+        <v>0.01156515629662183</v>
       </c>
       <c r="AD12">
         <v>3</v>
@@ -2885,7 +2921,7 @@
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.02432795449754989</v>
+        <v>0.02547917752596115</v>
       </c>
       <c r="AM12">
         <v>3</v>
@@ -2903,13 +2939,13 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AU12">
-        <v>0.01265324674332104</v>
+        <v>0.01098636790750647</v>
       </c>
       <c r="AV12">
         <v>3</v>
@@ -2933,7 +2969,7 @@
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.02410344165486423</v>
+        <v>0.02545883063531772</v>
       </c>
       <c r="BE12">
         <v>3</v>
@@ -2951,13 +2987,13 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BM12">
-        <v>0.01234658193020727</v>
+        <v>0.0107392361306146</v>
       </c>
       <c r="BN12">
         <v>3</v>
@@ -2983,13 +3019,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.001380517007527648</v>
+        <v>0.001835927850321756</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3004,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K13">
-        <v>0.001795777174640429</v>
+        <v>0.001782767452453312</v>
       </c>
       <c r="L13">
         <v>3</v>
@@ -3031,13 +3067,13 @@
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.02223885759035788</v>
+        <v>0.02552364534575159</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -3052,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC13">
-        <v>0.0134252370239162</v>
+        <v>0.01156515629662183</v>
       </c>
       <c r="AD13">
         <v>3</v>
@@ -3079,13 +3115,13 @@
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.02323795564332677</v>
+        <v>0.02547917752596115</v>
       </c>
       <c r="AM13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -3100,10 +3136,10 @@
         <v>0</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AU13">
-        <v>0.01265324674332104</v>
+        <v>0.01098636790750647</v>
       </c>
       <c r="AV13">
         <v>3</v>
@@ -3127,13 +3163,13 @@
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.02371159896495746</v>
+        <v>0.02545883063531772</v>
       </c>
       <c r="BE13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG13">
         <v>0</v>
@@ -3148,10 +3184,10 @@
         <v>0</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BM13">
-        <v>0.01234658193020727</v>
+        <v>0.0107392361306146</v>
       </c>
       <c r="BN13">
         <v>3</v>
@@ -3177,13 +3213,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.001375384722891142</v>
+        <v>0.001830786039170196</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3198,10 +3234,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K14">
-        <v>0.001795777174640429</v>
+        <v>0.001782767452453312</v>
       </c>
       <c r="L14">
         <v>3</v>
@@ -3225,13 +3261,13 @@
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.02207351157570833</v>
+        <v>0.02540196356197219</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -3246,10 +3282,10 @@
         <v>1</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC14">
-        <v>0.0134252370239162</v>
+        <v>0.01156515629662183</v>
       </c>
       <c r="AD14">
         <v>3</v>
@@ -3273,13 +3309,13 @@
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.02305183835938472</v>
+        <v>0.02534548162946644</v>
       </c>
       <c r="AM14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -3294,10 +3330,10 @@
         <v>1</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU14">
-        <v>0.01265324674332104</v>
+        <v>0.01098636790750647</v>
       </c>
       <c r="AV14">
         <v>3</v>
@@ -3321,13 +3357,13 @@
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.02351563462651166</v>
+        <v>0.02531963750871935</v>
       </c>
       <c r="BE14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG14">
         <v>0</v>
@@ -3342,10 +3378,10 @@
         <v>1</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BM14">
-        <v>0.01234658193020727</v>
+        <v>0.0107392361306146</v>
       </c>
       <c r="BN14">
         <v>3</v>
@@ -3371,13 +3407,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.001375384722891142</v>
+        <v>0.001825644228018636</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3389,13 +3425,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K15">
-        <v>0.001790644890003923</v>
+        <v>0.001777625641301752</v>
       </c>
       <c r="L15">
         <v>3</v>
@@ -3419,13 +3455,13 @@
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.02207351157570833</v>
+        <v>0.02528028177819279</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -3437,13 +3473,13 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AC15">
-        <v>0.01334978515418951</v>
+        <v>0.01150746463905599</v>
       </c>
       <c r="AD15">
         <v>3</v>
@@ -3467,13 +3503,13 @@
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.02305183835938472</v>
+        <v>0.02521178573297174</v>
       </c>
       <c r="AM15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -3485,13 +3521,13 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU15">
-        <v>0.01257816758426158</v>
+        <v>0.0109259491787781</v>
       </c>
       <c r="AV15">
         <v>3</v>
@@ -3515,13 +3551,13 @@
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.02351563462651166</v>
+        <v>0.02518044438212098</v>
       </c>
       <c r="BE15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG15">
         <v>0</v>
@@ -3533,13 +3569,13 @@
         <v>0</v>
       </c>
       <c r="BJ15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BM15">
-        <v>0.01227165082644071</v>
+        <v>0.01067765299369356</v>
       </c>
       <c r="BN15">
         <v>3</v>
@@ -3565,7 +3601,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.001375384722891142</v>
+        <v>0.001375660434953427</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -3583,13 +3619,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K16">
-        <v>0.001780380320730911</v>
+        <v>0.001777625641301752</v>
       </c>
       <c r="L16">
         <v>3</v>
@@ -3607,13 +3643,13 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T16">
-        <v>0.02207351157570833</v>
+        <v>0.02280056983467612</v>
       </c>
       <c r="U16">
         <v>2</v>
@@ -3631,13 +3667,13 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC16">
-        <v>0.0131988814147361</v>
+        <v>0.01150746463905599</v>
       </c>
       <c r="AD16">
         <v>3</v>
@@ -3655,13 +3691,13 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>0.02305183835938472</v>
+        <v>0.02376950022379385</v>
       </c>
       <c r="AM16">
         <v>2</v>
@@ -3679,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AU16">
-        <v>0.01242800926614264</v>
+        <v>0.0109259491787781</v>
       </c>
       <c r="AV16">
         <v>3</v>
@@ -3703,13 +3739,13 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="BD16">
-        <v>0.02351563462651166</v>
+        <v>0.0242128482620244</v>
       </c>
       <c r="BE16">
         <v>2</v>
@@ -3727,13 +3763,13 @@
         <v>0</v>
       </c>
       <c r="BJ16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BM16">
-        <v>0.01212178861890757</v>
+        <v>0.01067765299369356</v>
       </c>
       <c r="BN16">
         <v>3</v>
@@ -3751,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3759,7 +3795,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.001375384722891142</v>
+        <v>0.001375660434953427</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -3777,19 +3813,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K17">
-        <v>0.001345549809821195</v>
+        <v>0.001772483830150192</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -3801,13 +3837,13 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.02207351157570833</v>
+        <v>0.02280056983467612</v>
       </c>
       <c r="U17">
         <v>2</v>
@@ -3825,19 +3861,19 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AC17">
-        <v>0.01177049167736509</v>
+        <v>0.01144977298149015</v>
       </c>
       <c r="AD17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF17">
         <v>1</v>
@@ -3849,13 +3885,13 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL17">
-        <v>0.02305183835938472</v>
+        <v>0.02376950022379385</v>
       </c>
       <c r="AM17">
         <v>2</v>
@@ -3873,19 +3909,19 @@
         <v>0</v>
       </c>
       <c r="AR17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AU17">
-        <v>0.01171234881327722</v>
+        <v>0.01086553045004972</v>
       </c>
       <c r="AV17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX17">
         <v>1</v>
@@ -3897,13 +3933,13 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD17">
-        <v>0.02351563462651166</v>
+        <v>0.0242128482620244</v>
       </c>
       <c r="BE17">
         <v>2</v>
@@ -3921,19 +3957,19 @@
         <v>0</v>
       </c>
       <c r="BJ17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BM17">
-        <v>0.0116892521875844</v>
+        <v>0.01061606985677251</v>
       </c>
       <c r="BN17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP17">
         <v>1</v>
@@ -3945,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3953,7 +3989,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.00136512015361813</v>
+        <v>0.001370518623801867</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -3971,13 +4007,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K18">
-        <v>0.001345549809821195</v>
+        <v>0.001335790136552094</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -4001,7 +4037,7 @@
         <v>23</v>
       </c>
       <c r="T18">
-        <v>0.02174281954640922</v>
+        <v>0.02267888805089673</v>
       </c>
       <c r="U18">
         <v>2</v>
@@ -4019,13 +4055,13 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AC18">
-        <v>0.01177049167736509</v>
+        <v>0.01031137326722921</v>
       </c>
       <c r="AD18">
         <v>2</v>
@@ -4049,7 +4085,7 @@
         <v>23</v>
       </c>
       <c r="AL18">
-        <v>0.02267960379150063</v>
+        <v>0.02363580432729915</v>
       </c>
       <c r="AM18">
         <v>2</v>
@@ -4067,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AU18">
-        <v>0.01171234881327722</v>
+        <v>0.01023605415893063</v>
       </c>
       <c r="AV18">
         <v>2</v>
@@ -4097,7 +4133,7 @@
         <v>23</v>
       </c>
       <c r="BD18">
-        <v>0.02312370594962005</v>
+        <v>0.02407365513542603</v>
       </c>
       <c r="BE18">
         <v>2</v>
@@ -4115,13 +4151,13 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BM18">
-        <v>0.0116892521875844</v>
+        <v>0.01020389431360925</v>
       </c>
       <c r="BN18">
         <v>2</v>
@@ -4147,7 +4183,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.00136512015361813</v>
+        <v>0.001365376812650307</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -4165,13 +4201,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K19">
-        <v>0.001345549809821195</v>
+        <v>0.001335790136552094</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -4195,7 +4231,7 @@
         <v>24</v>
       </c>
       <c r="T19">
-        <v>0.02174281954640922</v>
+        <v>0.02255720626711733</v>
       </c>
       <c r="U19">
         <v>2</v>
@@ -4213,13 +4249,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AC19">
-        <v>0.01177049167736509</v>
+        <v>0.01031137326722921</v>
       </c>
       <c r="AD19">
         <v>2</v>
@@ -4243,7 +4279,7 @@
         <v>24</v>
       </c>
       <c r="AL19">
-        <v>0.02267960379150063</v>
+        <v>0.02350210843080444</v>
       </c>
       <c r="AM19">
         <v>2</v>
@@ -4261,13 +4297,13 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AU19">
-        <v>0.01171234881327722</v>
+        <v>0.01023605415893063</v>
       </c>
       <c r="AV19">
         <v>2</v>
@@ -4291,7 +4327,7 @@
         <v>24</v>
       </c>
       <c r="BD19">
-        <v>0.02312370594962005</v>
+        <v>0.02393446200882766</v>
       </c>
       <c r="BE19">
         <v>2</v>
@@ -4309,13 +4345,13 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BM19">
-        <v>0.0116892521875844</v>
+        <v>0.01020389431360925</v>
       </c>
       <c r="BN19">
         <v>2</v>
@@ -4341,13 +4377,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0009186339101395963</v>
+        <v>0.001360235001498747</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4359,13 +4395,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K20">
-        <v>0.001345549809821195</v>
+        <v>0.001335790136552094</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -4389,13 +4425,13 @@
         <v>25</v>
       </c>
       <c r="T20">
-        <v>0.01851875364075018</v>
+        <v>0.02243552448333793</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -4407,13 +4443,13 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AC20">
-        <v>0.01177049167736509</v>
+        <v>0.01031137326722921</v>
       </c>
       <c r="AD20">
         <v>2</v>
@@ -4437,13 +4473,13 @@
         <v>25</v>
       </c>
       <c r="AL20">
-        <v>0.02084513580150931</v>
+        <v>0.02336841253430974</v>
       </c>
       <c r="AM20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO20">
         <v>0</v>
@@ -4455,13 +4491,13 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AU20">
-        <v>0.01171234881327722</v>
+        <v>0.01023605415893063</v>
       </c>
       <c r="AV20">
         <v>2</v>
@@ -4485,13 +4521,13 @@
         <v>25</v>
       </c>
       <c r="BD20">
-        <v>0.02194800590593006</v>
+        <v>0.02379526888222929</v>
       </c>
       <c r="BE20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG20">
         <v>0</v>
@@ -4503,13 +4539,13 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BM20">
-        <v>0.0116892521875844</v>
+        <v>0.01020389431360925</v>
       </c>
       <c r="BN20">
         <v>2</v>
@@ -4535,13 +4571,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0009186339101395963</v>
+        <v>0.001360235001498747</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4553,13 +4589,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K21">
-        <v>0.001345549809821195</v>
+        <v>0.001335790136552094</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -4583,13 +4619,13 @@
         <v>26</v>
       </c>
       <c r="T21">
-        <v>0.01851875364075018</v>
+        <v>0.02243552448333793</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -4601,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AC21">
-        <v>0.01177049167736509</v>
+        <v>0.01031137326722921</v>
       </c>
       <c r="AD21">
         <v>2</v>
@@ -4631,13 +4667,13 @@
         <v>26</v>
       </c>
       <c r="AL21">
-        <v>0.02084513580150931</v>
+        <v>0.02336841253430974</v>
       </c>
       <c r="AM21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO21">
         <v>0</v>
@@ -4649,13 +4685,13 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AU21">
-        <v>0.01171234881327722</v>
+        <v>0.01023605415893063</v>
       </c>
       <c r="AV21">
         <v>2</v>
@@ -4679,13 +4715,13 @@
         <v>26</v>
       </c>
       <c r="BD21">
-        <v>0.02194800590593006</v>
+        <v>0.02379526888222929</v>
       </c>
       <c r="BE21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG21">
         <v>0</v>
@@ -4697,13 +4733,13 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BM21">
-        <v>0.0116892521875844</v>
+        <v>0.01020389431360925</v>
       </c>
       <c r="BN21">
         <v>2</v>
@@ -4729,7 +4765,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0009186339101395963</v>
+        <v>0.000920534830736658</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4747,13 +4783,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K22">
-        <v>0.001345549809821195</v>
+        <v>0.001335790136552094</v>
       </c>
       <c r="L22">
         <v>2</v>
@@ -4777,7 +4813,7 @@
         <v>27</v>
       </c>
       <c r="T22">
-        <v>0.01851875364075018</v>
+        <v>0.02019917610738006</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -4795,13 +4831,13 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC22">
-        <v>0.01177049167736509</v>
+        <v>0.01031137326722921</v>
       </c>
       <c r="AD22">
         <v>2</v>
@@ -4825,7 +4861,7 @@
         <v>27</v>
       </c>
       <c r="AL22">
-        <v>0.02084513580150931</v>
+        <v>0.02219351881812126</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -4843,13 +4879,13 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AU22">
-        <v>0.01171234881327722</v>
+        <v>0.01023605415893063</v>
       </c>
       <c r="AV22">
         <v>2</v>
@@ -4873,7 +4909,7 @@
         <v>27</v>
       </c>
       <c r="BD22">
-        <v>0.02194800590593006</v>
+        <v>0.02310605901532944</v>
       </c>
       <c r="BE22">
         <v>1</v>
@@ -4891,13 +4927,13 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BM22">
-        <v>0.0116892521875844</v>
+        <v>0.01020389431360925</v>
       </c>
       <c r="BN22">
         <v>2</v>
@@ -4923,7 +4959,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0009186339101395963</v>
+        <v>0.000915393019585098</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4944,10 +4980,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K23">
-        <v>0.001345549809821195</v>
+        <v>0.001335790136552094</v>
       </c>
       <c r="L23">
         <v>2</v>
@@ -4971,7 +5007,7 @@
         <v>28</v>
       </c>
       <c r="T23">
-        <v>0.01851875364075018</v>
+        <v>0.02007749432360066</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4992,10 +5028,10 @@
         <v>0</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC23">
-        <v>0.01177049167736509</v>
+        <v>0.01031137326722921</v>
       </c>
       <c r="AD23">
         <v>2</v>
@@ -5019,7 +5055,7 @@
         <v>28</v>
       </c>
       <c r="AL23">
-        <v>0.02084513580150931</v>
+        <v>0.02205982292162656</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -5040,10 +5076,10 @@
         <v>0</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AU23">
-        <v>0.01171234881327722</v>
+        <v>0.01023605415893063</v>
       </c>
       <c r="AV23">
         <v>2</v>
@@ -5067,7 +5103,7 @@
         <v>28</v>
       </c>
       <c r="BD23">
-        <v>0.02194800590593006</v>
+        <v>0.02296686588873107</v>
       </c>
       <c r="BE23">
         <v>1</v>
@@ -5088,10 +5124,10 @@
         <v>0</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BM23">
-        <v>0.0116892521875844</v>
+        <v>0.01020389431360925</v>
       </c>
       <c r="BN23">
         <v>2</v>
@@ -5117,7 +5153,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0009186339101395963</v>
+        <v>0.000915393019585098</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -5138,10 +5174,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K24">
-        <v>0.001345549809821195</v>
+        <v>0.001335790136552094</v>
       </c>
       <c r="L24">
         <v>2</v>
@@ -5165,7 +5201,7 @@
         <v>29</v>
       </c>
       <c r="T24">
-        <v>0.01851875364075018</v>
+        <v>0.02007749432360066</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -5186,10 +5222,10 @@
         <v>0</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC24">
-        <v>0.01177049167736509</v>
+        <v>0.01031137326722921</v>
       </c>
       <c r="AD24">
         <v>2</v>
@@ -5213,7 +5249,7 @@
         <v>29</v>
       </c>
       <c r="AL24">
-        <v>0.02084513580150931</v>
+        <v>0.02205982292162656</v>
       </c>
       <c r="AM24">
         <v>1</v>
@@ -5234,10 +5270,10 @@
         <v>0</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AU24">
-        <v>0.01171234881327722</v>
+        <v>0.01023605415893063</v>
       </c>
       <c r="AV24">
         <v>2</v>
@@ -5261,7 +5297,7 @@
         <v>29</v>
       </c>
       <c r="BD24">
-        <v>0.02194800590593006</v>
+        <v>0.02296686588873107</v>
       </c>
       <c r="BE24">
         <v>1</v>
@@ -5282,10 +5318,10 @@
         <v>0</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BM24">
-        <v>0.0116892521875844</v>
+        <v>0.01020389431360925</v>
       </c>
       <c r="BN24">
         <v>2</v>
@@ -5311,7 +5347,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0009186339101395963</v>
+        <v>0.000915393019585098</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -5332,10 +5368,10 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K25">
-        <v>0.001345549809821195</v>
+        <v>0.001335790136552094</v>
       </c>
       <c r="L25">
         <v>2</v>
@@ -5359,7 +5395,7 @@
         <v>30</v>
       </c>
       <c r="T25">
-        <v>0.01851875364075018</v>
+        <v>0.02007749432360066</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -5380,10 +5416,10 @@
         <v>0</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC25">
-        <v>0.01177049167736509</v>
+        <v>0.01031137326722921</v>
       </c>
       <c r="AD25">
         <v>2</v>
@@ -5407,7 +5443,7 @@
         <v>30</v>
       </c>
       <c r="AL25">
-        <v>0.02084513580150931</v>
+        <v>0.02205982292162656</v>
       </c>
       <c r="AM25">
         <v>1</v>
@@ -5428,10 +5464,10 @@
         <v>0</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AU25">
-        <v>0.01171234881327722</v>
+        <v>0.01023605415893063</v>
       </c>
       <c r="AV25">
         <v>2</v>
@@ -5455,7 +5491,7 @@
         <v>30</v>
       </c>
       <c r="BD25">
-        <v>0.02194800590593006</v>
+        <v>0.02296686588873107</v>
       </c>
       <c r="BE25">
         <v>1</v>
@@ -5476,10 +5512,10 @@
         <v>0</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BM25">
-        <v>0.0116892521875844</v>
+        <v>0.01020389431360925</v>
       </c>
       <c r="BN25">
         <v>2</v>
@@ -5505,7 +5541,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0009186339101395963</v>
+        <v>0.000915393019585098</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -5526,10 +5562,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K26">
-        <v>0.001345549809821195</v>
+        <v>0.001315222891945854</v>
       </c>
       <c r="L26">
         <v>2</v>
@@ -5547,13 +5583,13 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="T26">
-        <v>0.01851875364075018</v>
+        <v>0.02007749432360066</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -5574,10 +5610,10 @@
         <v>0</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC26">
-        <v>0.01177049167736509</v>
+        <v>0.01008060663696586</v>
       </c>
       <c r="AD26">
         <v>2</v>
@@ -5595,13 +5631,13 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AL26">
-        <v>0.02084513580150931</v>
+        <v>0.02205982292162656</v>
       </c>
       <c r="AM26">
         <v>1</v>
@@ -5622,10 +5658,10 @@
         <v>0</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AU26">
-        <v>0.01171234881327722</v>
+        <v>0.009994379244017131</v>
       </c>
       <c r="AV26">
         <v>2</v>
@@ -5643,13 +5679,13 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="BD26">
-        <v>0.02194800590593006</v>
+        <v>0.02296686588873107</v>
       </c>
       <c r="BE26">
         <v>1</v>
@@ -5670,10 +5706,10 @@
         <v>0</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BM26">
-        <v>0.0116892521875844</v>
+        <v>0.009957561765925072</v>
       </c>
       <c r="BN26">
         <v>2</v>
@@ -5691,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5699,7 +5735,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0009186339101395963</v>
+        <v>0.000915393019585098</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -5720,10 +5756,10 @@
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K27">
-        <v>0.001340417525184689</v>
+        <v>0.001315222891945854</v>
       </c>
       <c r="L27">
         <v>2</v>
@@ -5741,13 +5777,13 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="T27">
-        <v>0.01851875364075018</v>
+        <v>0.02007749432360066</v>
       </c>
       <c r="U27">
         <v>1</v>
@@ -5768,10 +5804,10 @@
         <v>0</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AC27">
-        <v>0.01169503980763839</v>
+        <v>0.01008060663696586</v>
       </c>
       <c r="AD27">
         <v>2</v>
@@ -5789,13 +5825,13 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AL27">
-        <v>0.02084513580150931</v>
+        <v>0.02205982292162656</v>
       </c>
       <c r="AM27">
         <v>1</v>
@@ -5816,10 +5852,10 @@
         <v>0</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AU27">
-        <v>0.01163726965421776</v>
+        <v>0.009994379244017131</v>
       </c>
       <c r="AV27">
         <v>2</v>
@@ -5837,13 +5873,13 @@
         <v>0</v>
       </c>
       <c r="BA27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="BD27">
-        <v>0.02194800590593006</v>
+        <v>0.02296686588873107</v>
       </c>
       <c r="BE27">
         <v>1</v>
@@ -5864,10 +5900,10 @@
         <v>0</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BM27">
-        <v>0.01161432108381783</v>
+        <v>0.009957561765925072</v>
       </c>
       <c r="BN27">
         <v>2</v>
@@ -5885,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5893,7 +5929,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0009186339101395963</v>
+        <v>0.000915393019585098</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -5914,10 +5950,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K28">
-        <v>0.001335285240548183</v>
+        <v>0.001176393990853733</v>
       </c>
       <c r="L28">
         <v>2</v>
@@ -5935,13 +5971,13 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="T28">
-        <v>0.01851875364075018</v>
+        <v>0.02007749432360066</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -5965,13 +6001,13 @@
         <v>76</v>
       </c>
       <c r="AC28">
-        <v>0.01161958793791169</v>
+        <v>0.009115281895402439</v>
       </c>
       <c r="AD28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>1</v>
@@ -5983,13 +6019,13 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AK28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AL28">
-        <v>0.02084513580150931</v>
+        <v>0.02205982292162656</v>
       </c>
       <c r="AM28">
         <v>1</v>
@@ -6013,13 +6049,13 @@
         <v>76</v>
       </c>
       <c r="AU28">
-        <v>0.01156219049515828</v>
+        <v>0.009546159139083157</v>
       </c>
       <c r="AV28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX28">
         <v>1</v>
@@ -6031,13 +6067,13 @@
         <v>0</v>
       </c>
       <c r="BA28">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BC28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="BD28">
-        <v>0.02194800590593006</v>
+        <v>0.02296686588873107</v>
       </c>
       <c r="BE28">
         <v>1</v>
@@ -6061,13 +6097,13 @@
         <v>76</v>
       </c>
       <c r="BM28">
-        <v>0.01153938998005126</v>
+        <v>0.009730135633524937</v>
       </c>
       <c r="BN28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP28">
         <v>1</v>
@@ -6079,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -6087,7 +6123,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0009186339101395963</v>
+        <v>0.000915393019585098</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -6108,16 +6144,16 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K29">
-        <v>0.001335285240548183</v>
+        <v>0.0008939546318024361</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -6129,13 +6165,13 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="T29">
-        <v>0.01851875364075018</v>
+        <v>0.02007749432360066</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -6159,13 +6195,13 @@
         <v>77</v>
       </c>
       <c r="AC29">
-        <v>0.01161958793791169</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>1</v>
@@ -6177,13 +6213,13 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AL29">
-        <v>0.02084513580150931</v>
+        <v>0.02205982292162656</v>
       </c>
       <c r="AM29">
         <v>1</v>
@@ -6207,13 +6243,13 @@
         <v>77</v>
       </c>
       <c r="AU29">
-        <v>0.01156219049515828</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX29">
         <v>1</v>
@@ -6225,13 +6261,13 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="BD29">
-        <v>0.02194800590593006</v>
+        <v>0.02296686588873107</v>
       </c>
       <c r="BE29">
         <v>1</v>
@@ -6255,13 +6291,13 @@
         <v>77</v>
       </c>
       <c r="BM29">
-        <v>0.01153938998005126</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP29">
         <v>1</v>
@@ -6273,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="BS29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -6281,7 +6317,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0009186339101395963</v>
+        <v>0.000915393019585098</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -6302,16 +6338,16 @@
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K30">
-        <v>0.001330152955911677</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -6323,13 +6359,13 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T30">
-        <v>0.01851875364075018</v>
+        <v>0.02007749432360066</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -6353,13 +6389,13 @@
         <v>78</v>
       </c>
       <c r="AC30">
-        <v>0.01154413606818499</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>1</v>
@@ -6371,13 +6407,13 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AL30">
-        <v>0.02084513580150931</v>
+        <v>0.02205982292162656</v>
       </c>
       <c r="AM30">
         <v>1</v>
@@ -6401,13 +6437,13 @@
         <v>78</v>
       </c>
       <c r="AU30">
-        <v>0.01148711133609882</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX30">
         <v>1</v>
@@ -6419,13 +6455,13 @@
         <v>0</v>
       </c>
       <c r="BA30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="BD30">
-        <v>0.02194800590593006</v>
+        <v>0.02296686588873107</v>
       </c>
       <c r="BE30">
         <v>1</v>
@@ -6449,13 +6485,13 @@
         <v>78</v>
       </c>
       <c r="BM30">
-        <v>0.0114644588762847</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP30">
         <v>1</v>
@@ -6467,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="BS30">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -6475,7 +6511,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0009135016255030903</v>
+        <v>0.000915393019585098</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -6493,13 +6529,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K31">
-        <v>0.0008953224450019614</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -6523,7 +6559,7 @@
         <v>36</v>
       </c>
       <c r="T31">
-        <v>0.01835340762610063</v>
+        <v>0.02007749432360066</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -6541,13 +6577,13 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AC31">
-        <v>0.01011574633081397</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD31">
         <v>1</v>
@@ -6571,7 +6607,7 @@
         <v>36</v>
       </c>
       <c r="AL31">
-        <v>0.02065901851756726</v>
+        <v>0.02205982292162656</v>
       </c>
       <c r="AM31">
         <v>1</v>
@@ -6589,13 +6625,13 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT31" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AU31">
-        <v>0.0107714508832334</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV31">
         <v>1</v>
@@ -6619,7 +6655,7 @@
         <v>36</v>
       </c>
       <c r="BD31">
-        <v>0.02175204156748426</v>
+        <v>0.02296686588873107</v>
       </c>
       <c r="BE31">
         <v>1</v>
@@ -6637,13 +6673,13 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL31" s="1" t="s">
         <v>79</v>
       </c>
       <c r="BM31">
-        <v>0.01103192244496152</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN31">
         <v>1</v>
@@ -6669,7 +6705,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0009135016255030903</v>
+        <v>0.000915393019585098</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -6687,13 +6723,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K32">
-        <v>0.0008953224450019614</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -6717,7 +6753,7 @@
         <v>37</v>
       </c>
       <c r="T32">
-        <v>0.01835340762610063</v>
+        <v>0.02007749432360066</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -6735,13 +6771,13 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AC32">
-        <v>0.01011574633081397</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD32">
         <v>1</v>
@@ -6765,7 +6801,7 @@
         <v>37</v>
       </c>
       <c r="AL32">
-        <v>0.02065901851756726</v>
+        <v>0.02205982292162656</v>
       </c>
       <c r="AM32">
         <v>1</v>
@@ -6783,13 +6819,13 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT32" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AU32">
-        <v>0.0107714508832334</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV32">
         <v>1</v>
@@ -6813,7 +6849,7 @@
         <v>37</v>
       </c>
       <c r="BD32">
-        <v>0.02175204156748426</v>
+        <v>0.02296686588873107</v>
       </c>
       <c r="BE32">
         <v>1</v>
@@ -6831,13 +6867,13 @@
         <v>0</v>
       </c>
       <c r="BJ32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL32" s="1" t="s">
         <v>80</v>
       </c>
       <c r="BM32">
-        <v>0.01103192244496152</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN32">
         <v>1</v>
@@ -6863,7 +6899,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0009135016255030903</v>
+        <v>0.0009102512084335379</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -6884,10 +6920,10 @@
         <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K33">
-        <v>0.0008953224450019614</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -6911,7 +6947,7 @@
         <v>38</v>
       </c>
       <c r="T33">
-        <v>0.01835340762610063</v>
+        <v>0.01995581253982126</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -6935,7 +6971,7 @@
         <v>81</v>
       </c>
       <c r="AC33">
-        <v>0.01011574633081397</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD33">
         <v>1</v>
@@ -6959,7 +6995,7 @@
         <v>38</v>
       </c>
       <c r="AL33">
-        <v>0.02065901851756726</v>
+        <v>0.02192612702513185</v>
       </c>
       <c r="AM33">
         <v>1</v>
@@ -6983,7 +7019,7 @@
         <v>81</v>
       </c>
       <c r="AU33">
-        <v>0.0107714508832334</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV33">
         <v>1</v>
@@ -7007,7 +7043,7 @@
         <v>38</v>
       </c>
       <c r="BD33">
-        <v>0.02175204156748426</v>
+        <v>0.0228276727621327</v>
       </c>
       <c r="BE33">
         <v>1</v>
@@ -7031,7 +7067,7 @@
         <v>81</v>
       </c>
       <c r="BM33">
-        <v>0.01103192244496152</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN33">
         <v>1</v>
@@ -7057,7 +7093,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0009135016255030903</v>
+        <v>0.0009102512084335379</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -7078,10 +7114,10 @@
         <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K34">
-        <v>0.0008953224450019614</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -7105,7 +7141,7 @@
         <v>39</v>
       </c>
       <c r="T34">
-        <v>0.01835340762610063</v>
+        <v>0.01995581253982126</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -7129,7 +7165,7 @@
         <v>82</v>
       </c>
       <c r="AC34">
-        <v>0.01011574633081397</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD34">
         <v>1</v>
@@ -7153,7 +7189,7 @@
         <v>39</v>
       </c>
       <c r="AL34">
-        <v>0.02065901851756726</v>
+        <v>0.02192612702513185</v>
       </c>
       <c r="AM34">
         <v>1</v>
@@ -7177,7 +7213,7 @@
         <v>82</v>
       </c>
       <c r="AU34">
-        <v>0.0107714508832334</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV34">
         <v>1</v>
@@ -7201,7 +7237,7 @@
         <v>39</v>
       </c>
       <c r="BD34">
-        <v>0.02175204156748426</v>
+        <v>0.0228276727621327</v>
       </c>
       <c r="BE34">
         <v>1</v>
@@ -7225,7 +7261,7 @@
         <v>82</v>
       </c>
       <c r="BM34">
-        <v>0.01103192244496152</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN34">
         <v>1</v>
@@ -7251,7 +7287,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0009135016255030903</v>
+        <v>0.0009102512084335379</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -7272,10 +7308,10 @@
         <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K35">
-        <v>0.0008953224450019614</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -7299,7 +7335,7 @@
         <v>40</v>
       </c>
       <c r="T35">
-        <v>0.01835340762610063</v>
+        <v>0.01995581253982126</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -7323,7 +7359,7 @@
         <v>83</v>
       </c>
       <c r="AC35">
-        <v>0.01011574633081397</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD35">
         <v>1</v>
@@ -7347,7 +7383,7 @@
         <v>40</v>
       </c>
       <c r="AL35">
-        <v>0.02065901851756726</v>
+        <v>0.02192612702513185</v>
       </c>
       <c r="AM35">
         <v>1</v>
@@ -7371,7 +7407,7 @@
         <v>83</v>
       </c>
       <c r="AU35">
-        <v>0.0107714508832334</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV35">
         <v>1</v>
@@ -7395,7 +7431,7 @@
         <v>40</v>
       </c>
       <c r="BD35">
-        <v>0.02175204156748426</v>
+        <v>0.0228276727621327</v>
       </c>
       <c r="BE35">
         <v>1</v>
@@ -7419,7 +7455,7 @@
         <v>83</v>
       </c>
       <c r="BM35">
-        <v>0.01103192244496152</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN35">
         <v>1</v>
@@ -7445,7 +7481,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0009135016255030903</v>
+        <v>0.0009102512084335379</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -7466,10 +7502,10 @@
         <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K36">
-        <v>0.0008953224450019614</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -7493,7 +7529,7 @@
         <v>41</v>
       </c>
       <c r="T36">
-        <v>0.01835340762610063</v>
+        <v>0.01995581253982126</v>
       </c>
       <c r="U36">
         <v>1</v>
@@ -7517,7 +7553,7 @@
         <v>84</v>
       </c>
       <c r="AC36">
-        <v>0.01011574633081397</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD36">
         <v>1</v>
@@ -7541,7 +7577,7 @@
         <v>41</v>
       </c>
       <c r="AL36">
-        <v>0.02065901851756726</v>
+        <v>0.02192612702513185</v>
       </c>
       <c r="AM36">
         <v>1</v>
@@ -7565,7 +7601,7 @@
         <v>84</v>
       </c>
       <c r="AU36">
-        <v>0.0107714508832334</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV36">
         <v>1</v>
@@ -7589,7 +7625,7 @@
         <v>41</v>
       </c>
       <c r="BD36">
-        <v>0.02175204156748426</v>
+        <v>0.0228276727621327</v>
       </c>
       <c r="BE36">
         <v>1</v>
@@ -7613,7 +7649,7 @@
         <v>84</v>
       </c>
       <c r="BM36">
-        <v>0.01103192244496152</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN36">
         <v>1</v>
@@ -7639,7 +7675,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.0009135016255030903</v>
+        <v>0.0009102512084335379</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -7660,10 +7696,10 @@
         <v>1</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K37">
-        <v>0.0008953224450019614</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -7687,7 +7723,7 @@
         <v>42</v>
       </c>
       <c r="T37">
-        <v>0.01835340762610063</v>
+        <v>0.01995581253982126</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -7711,7 +7747,7 @@
         <v>85</v>
       </c>
       <c r="AC37">
-        <v>0.01011574633081397</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD37">
         <v>1</v>
@@ -7735,7 +7771,7 @@
         <v>42</v>
       </c>
       <c r="AL37">
-        <v>0.02065901851756726</v>
+        <v>0.02192612702513185</v>
       </c>
       <c r="AM37">
         <v>1</v>
@@ -7759,7 +7795,7 @@
         <v>85</v>
       </c>
       <c r="AU37">
-        <v>0.0107714508832334</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV37">
         <v>1</v>
@@ -7783,7 +7819,7 @@
         <v>42</v>
       </c>
       <c r="BD37">
-        <v>0.02175204156748426</v>
+        <v>0.0228276727621327</v>
       </c>
       <c r="BE37">
         <v>1</v>
@@ -7807,7 +7843,7 @@
         <v>85</v>
       </c>
       <c r="BM37">
-        <v>0.01103192244496152</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN37">
         <v>1</v>
@@ -7833,7 +7869,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0009135016255030903</v>
+        <v>0.0009102512084335379</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -7854,10 +7890,10 @@
         <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K38">
-        <v>0.0008953224450019614</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -7881,7 +7917,7 @@
         <v>43</v>
       </c>
       <c r="T38">
-        <v>0.01835340762610063</v>
+        <v>0.01995581253982126</v>
       </c>
       <c r="U38">
         <v>1</v>
@@ -7905,7 +7941,7 @@
         <v>86</v>
       </c>
       <c r="AC38">
-        <v>0.01011574633081397</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD38">
         <v>1</v>
@@ -7929,7 +7965,7 @@
         <v>43</v>
       </c>
       <c r="AL38">
-        <v>0.02065901851756726</v>
+        <v>0.02192612702513185</v>
       </c>
       <c r="AM38">
         <v>1</v>
@@ -7953,7 +7989,7 @@
         <v>86</v>
       </c>
       <c r="AU38">
-        <v>0.0107714508832334</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV38">
         <v>1</v>
@@ -7977,7 +8013,7 @@
         <v>43</v>
       </c>
       <c r="BD38">
-        <v>0.02175204156748426</v>
+        <v>0.0228276727621327</v>
       </c>
       <c r="BE38">
         <v>1</v>
@@ -8001,7 +8037,7 @@
         <v>86</v>
       </c>
       <c r="BM38">
-        <v>0.01103192244496152</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN38">
         <v>1</v>
@@ -8027,7 +8063,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0009083693408665843</v>
+        <v>0.0009102512084335379</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -8045,13 +8081,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K39">
-        <v>0.0008953224450019614</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -8075,7 +8111,7 @@
         <v>44</v>
       </c>
       <c r="T39">
-        <v>0.01818806161145108</v>
+        <v>0.01995581253982126</v>
       </c>
       <c r="U39">
         <v>1</v>
@@ -8093,13 +8129,13 @@
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB39" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AC39">
-        <v>0.01011574633081397</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD39">
         <v>1</v>
@@ -8123,7 +8159,7 @@
         <v>44</v>
       </c>
       <c r="AL39">
-        <v>0.02047290123362521</v>
+        <v>0.02192612702513185</v>
       </c>
       <c r="AM39">
         <v>1</v>
@@ -8141,13 +8177,13 @@
         <v>0</v>
       </c>
       <c r="AR39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT39" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AU39">
-        <v>0.0107714508832334</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV39">
         <v>1</v>
@@ -8171,7 +8207,7 @@
         <v>44</v>
       </c>
       <c r="BD39">
-        <v>0.02155607722903845</v>
+        <v>0.0228276727621327</v>
       </c>
       <c r="BE39">
         <v>1</v>
@@ -8189,13 +8225,13 @@
         <v>0</v>
       </c>
       <c r="BJ39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL39" s="1" t="s">
         <v>87</v>
       </c>
       <c r="BM39">
-        <v>0.01103192244496152</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN39">
         <v>1</v>
@@ -8221,7 +8257,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0009083693408665843</v>
+        <v>0.000905109397281978</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -8242,10 +8278,10 @@
         <v>2</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K40">
-        <v>0.0008953224450019614</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -8269,7 +8305,7 @@
         <v>45</v>
       </c>
       <c r="T40">
-        <v>0.01818806161145108</v>
+        <v>0.01983413075604187</v>
       </c>
       <c r="U40">
         <v>1</v>
@@ -8293,7 +8329,7 @@
         <v>88</v>
       </c>
       <c r="AC40">
-        <v>0.01011574633081397</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD40">
         <v>1</v>
@@ -8317,7 +8353,7 @@
         <v>45</v>
       </c>
       <c r="AL40">
-        <v>0.02047290123362521</v>
+        <v>0.02179243112863714</v>
       </c>
       <c r="AM40">
         <v>1</v>
@@ -8341,7 +8377,7 @@
         <v>88</v>
       </c>
       <c r="AU40">
-        <v>0.0107714508832334</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV40">
         <v>1</v>
@@ -8365,7 +8401,7 @@
         <v>45</v>
       </c>
       <c r="BD40">
-        <v>0.02155607722903845</v>
+        <v>0.02268847963553433</v>
       </c>
       <c r="BE40">
         <v>1</v>
@@ -8389,7 +8425,7 @@
         <v>88</v>
       </c>
       <c r="BM40">
-        <v>0.01103192244496152</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN40">
         <v>1</v>
@@ -8415,7 +8451,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0009032370562300784</v>
+        <v>0.000899967586130418</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -8436,10 +8472,10 @@
         <v>3</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K41">
-        <v>0.0008953224450019614</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -8463,7 +8499,7 @@
         <v>46</v>
       </c>
       <c r="T41">
-        <v>0.01802271559680152</v>
+        <v>0.01971244897226247</v>
       </c>
       <c r="U41">
         <v>1</v>
@@ -8487,7 +8523,7 @@
         <v>89</v>
       </c>
       <c r="AC41">
-        <v>0.01011574633081397</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD41">
         <v>1</v>
@@ -8511,7 +8547,7 @@
         <v>46</v>
       </c>
       <c r="AL41">
-        <v>0.02028678394968317</v>
+        <v>0.02165873523214244</v>
       </c>
       <c r="AM41">
         <v>1</v>
@@ -8535,7 +8571,7 @@
         <v>89</v>
       </c>
       <c r="AU41">
-        <v>0.0107714508832334</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV41">
         <v>1</v>
@@ -8559,7 +8595,7 @@
         <v>46</v>
       </c>
       <c r="BD41">
-        <v>0.02136011289059265</v>
+        <v>0.02254928650893596</v>
       </c>
       <c r="BE41">
         <v>1</v>
@@ -8583,7 +8619,7 @@
         <v>89</v>
       </c>
       <c r="BM41">
-        <v>0.01103192244496152</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN41">
         <v>1</v>
@@ -8609,7 +8645,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.0008827079176840547</v>
+        <v>0.0008794003415241778</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -8630,10 +8666,10 @@
         <v>7</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K42">
-        <v>0.0008953224450019614</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -8657,7 +8693,7 @@
         <v>47</v>
       </c>
       <c r="T42">
-        <v>0.0173613315382033</v>
+        <v>0.01922572183714488</v>
       </c>
       <c r="U42">
         <v>1</v>
@@ -8681,7 +8717,7 @@
         <v>90</v>
       </c>
       <c r="AC42">
-        <v>0.01011574633081397</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD42">
         <v>1</v>
@@ -8705,7 +8741,7 @@
         <v>47</v>
       </c>
       <c r="AL42">
-        <v>0.01954231481391498</v>
+        <v>0.02112395164616361</v>
       </c>
       <c r="AM42">
         <v>1</v>
@@ -8729,7 +8765,7 @@
         <v>90</v>
       </c>
       <c r="AU42">
-        <v>0.0107714508832334</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV42">
         <v>1</v>
@@ -8753,7 +8789,7 @@
         <v>47</v>
       </c>
       <c r="BD42">
-        <v>0.02057625553680943</v>
+        <v>0.02199251400254248</v>
       </c>
       <c r="BE42">
         <v>1</v>
@@ -8777,7 +8813,7 @@
         <v>90</v>
       </c>
       <c r="BM42">
-        <v>0.01103192244496152</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN42">
         <v>1</v>
@@ -8803,7 +8839,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0008827079176840547</v>
+        <v>6.69941795776929E-05</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -8821,13 +8857,13 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K43">
-        <v>0.0008953224450019614</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L43">
         <v>1</v>
@@ -8851,7 +8887,7 @@
         <v>48</v>
       </c>
       <c r="T43">
-        <v>0.0173613315382033</v>
+        <v>0</v>
       </c>
       <c r="U43">
         <v>1</v>
@@ -8869,13 +8905,13 @@
         <v>0</v>
       </c>
       <c r="Z43">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="AB43" s="1" t="s">
         <v>91</v>
       </c>
       <c r="AC43">
-        <v>0.01011574633081397</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD43">
         <v>1</v>
@@ -8899,7 +8935,7 @@
         <v>48</v>
       </c>
       <c r="AL43">
-        <v>0.01954231481391498</v>
+        <v>0</v>
       </c>
       <c r="AM43">
         <v>1</v>
@@ -8917,13 +8953,13 @@
         <v>0</v>
       </c>
       <c r="AR43">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="AT43" s="1" t="s">
         <v>91</v>
       </c>
       <c r="AU43">
-        <v>0.0107714508832334</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV43">
         <v>1</v>
@@ -8947,7 +8983,7 @@
         <v>48</v>
       </c>
       <c r="BD43">
-        <v>0.02057625553680943</v>
+        <v>0</v>
       </c>
       <c r="BE43">
         <v>1</v>
@@ -8965,13 +9001,13 @@
         <v>0</v>
       </c>
       <c r="BJ43">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="BL43" s="1" t="s">
         <v>91</v>
       </c>
       <c r="BM43">
-        <v>0.01103192244496152</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN43">
         <v>1</v>
@@ -8993,35 +9029,11 @@
       </c>
     </row>
     <row r="44" spans="1:71">
-      <c r="A44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44">
-        <v>0.0003438180308509303</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>112</v>
-      </c>
       <c r="J44" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K44">
-        <v>0.0008953224450019614</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -9040,36 +9052,12 @@
       </c>
       <c r="Q44">
         <v>0</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>1</v>
-      </c>
-      <c r="V44">
-        <v>1</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>1</v>
-      </c>
-      <c r="Y44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>112</v>
       </c>
       <c r="AB44" s="1" t="s">
         <v>92</v>
       </c>
       <c r="AC44">
-        <v>0.01011574633081397</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD44">
         <v>1</v>
@@ -9088,36 +9076,12 @@
       </c>
       <c r="AI44">
         <v>0</v>
-      </c>
-      <c r="AK44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL44">
-        <v>0</v>
-      </c>
-      <c r="AM44">
-        <v>1</v>
-      </c>
-      <c r="AN44">
-        <v>1</v>
-      </c>
-      <c r="AO44">
-        <v>0</v>
-      </c>
-      <c r="AP44">
-        <v>1</v>
-      </c>
-      <c r="AQ44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>112</v>
       </c>
       <c r="AT44" s="1" t="s">
         <v>92</v>
       </c>
       <c r="AU44">
-        <v>0.0107714508832334</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV44">
         <v>1</v>
@@ -9136,36 +9100,12 @@
       </c>
       <c r="BA44">
         <v>0</v>
-      </c>
-      <c r="BC44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BD44">
-        <v>0</v>
-      </c>
-      <c r="BE44">
-        <v>1</v>
-      </c>
-      <c r="BF44">
-        <v>1</v>
-      </c>
-      <c r="BG44">
-        <v>0</v>
-      </c>
-      <c r="BH44">
-        <v>1</v>
-      </c>
-      <c r="BI44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ44">
-        <v>112</v>
       </c>
       <c r="BL44" s="1" t="s">
         <v>92</v>
       </c>
       <c r="BM44">
-        <v>0.01103192244496152</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN44">
         <v>1</v>
@@ -9188,10 +9128,10 @@
     </row>
     <row r="45" spans="1:71">
       <c r="J45" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K45">
-        <v>0.0008953224450019614</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -9215,7 +9155,7 @@
         <v>93</v>
       </c>
       <c r="AC45">
-        <v>0.01011574633081397</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD45">
         <v>1</v>
@@ -9239,7 +9179,7 @@
         <v>93</v>
       </c>
       <c r="AU45">
-        <v>0.0107714508832334</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV45">
         <v>1</v>
@@ -9263,7 +9203,7 @@
         <v>93</v>
       </c>
       <c r="BM45">
-        <v>0.01103192244496152</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN45">
         <v>1</v>
@@ -9286,10 +9226,10 @@
     </row>
     <row r="46" spans="1:71">
       <c r="J46" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K46">
-        <v>0.0008953224450019614</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -9313,7 +9253,7 @@
         <v>94</v>
       </c>
       <c r="AC46">
-        <v>0.01011574633081397</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD46">
         <v>1</v>
@@ -9337,7 +9277,7 @@
         <v>94</v>
       </c>
       <c r="AU46">
-        <v>0.0107714508832334</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV46">
         <v>1</v>
@@ -9361,7 +9301,7 @@
         <v>94</v>
       </c>
       <c r="BM46">
-        <v>0.01103192244496152</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN46">
         <v>1</v>
@@ -9384,10 +9324,10 @@
     </row>
     <row r="47" spans="1:71">
       <c r="J47" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K47">
-        <v>0.0008953224450019614</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -9411,7 +9351,7 @@
         <v>95</v>
       </c>
       <c r="AC47">
-        <v>0.01011574633081397</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD47">
         <v>1</v>
@@ -9435,7 +9375,7 @@
         <v>95</v>
       </c>
       <c r="AU47">
-        <v>0.0107714508832334</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV47">
         <v>1</v>
@@ -9459,7 +9399,7 @@
         <v>95</v>
       </c>
       <c r="BM47">
-        <v>0.01103192244496152</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN47">
         <v>1</v>
@@ -9482,10 +9422,10 @@
     </row>
     <row r="48" spans="1:71">
       <c r="J48" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K48">
-        <v>0.0008953224450019614</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -9509,7 +9449,7 @@
         <v>96</v>
       </c>
       <c r="AC48">
-        <v>0.01011574633081397</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD48">
         <v>1</v>
@@ -9533,7 +9473,7 @@
         <v>96</v>
       </c>
       <c r="AU48">
-        <v>0.0107714508832334</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV48">
         <v>1</v>
@@ -9557,7 +9497,7 @@
         <v>96</v>
       </c>
       <c r="BM48">
-        <v>0.01103192244496152</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN48">
         <v>1</v>
@@ -9580,10 +9520,10 @@
     </row>
     <row r="49" spans="10:71">
       <c r="J49" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K49">
-        <v>0.0008953224450019614</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -9607,7 +9547,7 @@
         <v>97</v>
       </c>
       <c r="AC49">
-        <v>0.01011574633081397</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD49">
         <v>1</v>
@@ -9631,7 +9571,7 @@
         <v>97</v>
       </c>
       <c r="AU49">
-        <v>0.0107714508832334</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV49">
         <v>1</v>
@@ -9655,7 +9595,7 @@
         <v>97</v>
       </c>
       <c r="BM49">
-        <v>0.01103192244496152</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN49">
         <v>1</v>
@@ -9678,10 +9618,10 @@
     </row>
     <row r="50" spans="10:71">
       <c r="J50" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K50">
-        <v>0.0008953224450019614</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -9705,7 +9645,7 @@
         <v>98</v>
       </c>
       <c r="AC50">
-        <v>0.01011574633081397</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD50">
         <v>1</v>
@@ -9729,7 +9669,7 @@
         <v>98</v>
       </c>
       <c r="AU50">
-        <v>0.0107714508832334</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV50">
         <v>1</v>
@@ -9753,7 +9693,7 @@
         <v>98</v>
       </c>
       <c r="BM50">
-        <v>0.01103192244496152</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN50">
         <v>1</v>
@@ -9776,10 +9716,10 @@
     </row>
     <row r="51" spans="10:71">
       <c r="J51" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K51">
-        <v>0.0008953224450019614</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -9803,7 +9743,7 @@
         <v>99</v>
       </c>
       <c r="AC51">
-        <v>0.01011574633081397</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD51">
         <v>1</v>
@@ -9827,7 +9767,7 @@
         <v>99</v>
       </c>
       <c r="AU51">
-        <v>0.0107714508832334</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV51">
         <v>1</v>
@@ -9851,7 +9791,7 @@
         <v>99</v>
       </c>
       <c r="BM51">
-        <v>0.01103192244496152</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN51">
         <v>1</v>
@@ -9874,10 +9814,10 @@
     </row>
     <row r="52" spans="10:71">
       <c r="J52" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K52">
-        <v>0.0008953224450019614</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -9901,7 +9841,7 @@
         <v>100</v>
       </c>
       <c r="AC52">
-        <v>0.01011574633081397</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD52">
         <v>1</v>
@@ -9925,7 +9865,7 @@
         <v>100</v>
       </c>
       <c r="AU52">
-        <v>0.0107714508832334</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV52">
         <v>1</v>
@@ -9949,7 +9889,7 @@
         <v>100</v>
       </c>
       <c r="BM52">
-        <v>0.01103192244496152</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN52">
         <v>1</v>
@@ -9972,10 +9912,10 @@
     </row>
     <row r="53" spans="10:71">
       <c r="J53" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K53">
-        <v>0.0008953224450019614</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -9999,7 +9939,7 @@
         <v>101</v>
       </c>
       <c r="AC53">
-        <v>0.01011574633081397</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD53">
         <v>1</v>
@@ -10023,7 +9963,7 @@
         <v>101</v>
       </c>
       <c r="AU53">
-        <v>0.0107714508832334</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV53">
         <v>1</v>
@@ -10047,7 +9987,7 @@
         <v>101</v>
       </c>
       <c r="BM53">
-        <v>0.01103192244496152</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN53">
         <v>1</v>
@@ -10070,10 +10010,10 @@
     </row>
     <row r="54" spans="10:71">
       <c r="J54" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K54">
-        <v>0.0008953224450019614</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -10097,7 +10037,7 @@
         <v>102</v>
       </c>
       <c r="AC54">
-        <v>0.01011574633081397</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD54">
         <v>1</v>
@@ -10121,7 +10061,7 @@
         <v>102</v>
       </c>
       <c r="AU54">
-        <v>0.0107714508832334</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV54">
         <v>1</v>
@@ -10145,7 +10085,7 @@
         <v>102</v>
       </c>
       <c r="BM54">
-        <v>0.01103192244496152</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN54">
         <v>1</v>
@@ -10168,10 +10108,10 @@
     </row>
     <row r="55" spans="10:71">
       <c r="J55" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K55">
-        <v>0.0008953224450019614</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -10195,7 +10135,7 @@
         <v>103</v>
       </c>
       <c r="AC55">
-        <v>0.01011574633081397</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD55">
         <v>1</v>
@@ -10219,7 +10159,7 @@
         <v>103</v>
       </c>
       <c r="AU55">
-        <v>0.0107714508832334</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV55">
         <v>1</v>
@@ -10243,7 +10183,7 @@
         <v>103</v>
       </c>
       <c r="BM55">
-        <v>0.01103192244496152</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN55">
         <v>1</v>
@@ -10266,10 +10206,10 @@
     </row>
     <row r="56" spans="10:71">
       <c r="J56" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K56">
-        <v>0.0008953224450019614</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L56">
         <v>1</v>
@@ -10293,7 +10233,7 @@
         <v>104</v>
       </c>
       <c r="AC56">
-        <v>0.01011574633081397</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD56">
         <v>1</v>
@@ -10317,7 +10257,7 @@
         <v>104</v>
       </c>
       <c r="AU56">
-        <v>0.0107714508832334</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV56">
         <v>1</v>
@@ -10341,7 +10281,7 @@
         <v>104</v>
       </c>
       <c r="BM56">
-        <v>0.01103192244496152</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN56">
         <v>1</v>
@@ -10364,10 +10304,10 @@
     </row>
     <row r="57" spans="10:71">
       <c r="J57" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K57">
-        <v>0.0008953224450019614</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L57">
         <v>1</v>
@@ -10391,7 +10331,7 @@
         <v>105</v>
       </c>
       <c r="AC57">
-        <v>0.01011574633081397</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD57">
         <v>1</v>
@@ -10415,7 +10355,7 @@
         <v>105</v>
       </c>
       <c r="AU57">
-        <v>0.0107714508832334</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV57">
         <v>1</v>
@@ -10439,7 +10379,7 @@
         <v>105</v>
       </c>
       <c r="BM57">
-        <v>0.01103192244496152</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN57">
         <v>1</v>
@@ -10462,10 +10402,10 @@
     </row>
     <row r="58" spans="10:71">
       <c r="J58" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K58">
-        <v>0.0008953224450019614</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L58">
         <v>1</v>
@@ -10489,7 +10429,7 @@
         <v>106</v>
       </c>
       <c r="AC58">
-        <v>0.01011574633081397</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD58">
         <v>1</v>
@@ -10513,7 +10453,7 @@
         <v>106</v>
       </c>
       <c r="AU58">
-        <v>0.0107714508832334</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV58">
         <v>1</v>
@@ -10537,7 +10477,7 @@
         <v>106</v>
       </c>
       <c r="BM58">
-        <v>0.01103192244496152</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN58">
         <v>1</v>
@@ -10560,10 +10500,10 @@
     </row>
     <row r="59" spans="10:71">
       <c r="J59" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K59">
-        <v>0.0008901901603654555</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L59">
         <v>1</v>
@@ -10581,13 +10521,13 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB59" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AC59">
-        <v>0.01004029446108727</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD59">
         <v>1</v>
@@ -10605,13 +10545,13 @@
         <v>0</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT59" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AU59">
-        <v>0.01069637172417393</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV59">
         <v>1</v>
@@ -10629,13 +10569,13 @@
         <v>0</v>
       </c>
       <c r="BA59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL59" s="1" t="s">
         <v>107</v>
       </c>
       <c r="BM59">
-        <v>0.01095699134119496</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN59">
         <v>1</v>
@@ -10653,15 +10593,15 @@
         <v>0</v>
       </c>
       <c r="BS59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="10:71">
       <c r="J60" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K60">
-        <v>0.0008901901603654555</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -10679,13 +10619,13 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB60" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AC60">
-        <v>0.01004029446108727</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD60">
         <v>1</v>
@@ -10703,13 +10643,13 @@
         <v>0</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AU60">
-        <v>0.01069637172417393</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV60">
         <v>1</v>
@@ -10727,13 +10667,13 @@
         <v>0</v>
       </c>
       <c r="BA60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL60" s="1" t="s">
         <v>108</v>
       </c>
       <c r="BM60">
-        <v>0.01095699134119496</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN60">
         <v>1</v>
@@ -10751,15 +10691,15 @@
         <v>0</v>
       </c>
       <c r="BS60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="10:71">
       <c r="J61" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K61">
-        <v>0.0008901901603654555</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L61">
         <v>1</v>
@@ -10777,13 +10717,13 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB61" s="1" t="s">
         <v>109</v>
       </c>
       <c r="AC61">
-        <v>0.01004029446108727</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD61">
         <v>1</v>
@@ -10801,13 +10741,13 @@
         <v>0</v>
       </c>
       <c r="AI61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT61" s="1" t="s">
         <v>109</v>
       </c>
       <c r="AU61">
-        <v>0.01069637172417393</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV61">
         <v>1</v>
@@ -10825,13 +10765,13 @@
         <v>0</v>
       </c>
       <c r="BA61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL61" s="1" t="s">
         <v>109</v>
       </c>
       <c r="BM61">
-        <v>0.01095699134119496</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN61">
         <v>1</v>
@@ -10849,15 +10789,15 @@
         <v>0</v>
       </c>
       <c r="BS61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="10:71">
       <c r="J62" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K62">
-        <v>0.0008901901603654555</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L62">
         <v>1</v>
@@ -10875,13 +10815,13 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB62" s="1" t="s">
         <v>110</v>
       </c>
       <c r="AC62">
-        <v>0.01004029446108727</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD62">
         <v>1</v>
@@ -10899,13 +10839,13 @@
         <v>0</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT62" s="1" t="s">
         <v>110</v>
       </c>
       <c r="AU62">
-        <v>0.01069637172417393</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV62">
         <v>1</v>
@@ -10923,13 +10863,13 @@
         <v>0</v>
       </c>
       <c r="BA62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL62" s="1" t="s">
         <v>110</v>
       </c>
       <c r="BM62">
-        <v>0.01095699134119496</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN62">
         <v>1</v>
@@ -10947,15 +10887,15 @@
         <v>0</v>
       </c>
       <c r="BS62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="10:71">
       <c r="J63" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K63">
-        <v>0.0008901901603654555</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -10973,13 +10913,13 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB63" s="1" t="s">
         <v>111</v>
       </c>
       <c r="AC63">
-        <v>0.01004029446108727</v>
+        <v>0.0090575902378366</v>
       </c>
       <c r="AD63">
         <v>1</v>
@@ -10997,13 +10937,13 @@
         <v>0</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT63" s="1" t="s">
         <v>111</v>
       </c>
       <c r="AU63">
-        <v>0.01069637172417393</v>
+        <v>0.009485740410354784</v>
       </c>
       <c r="AV63">
         <v>1</v>
@@ -11021,13 +10961,13 @@
         <v>0</v>
       </c>
       <c r="BA63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL63" s="1" t="s">
         <v>111</v>
       </c>
       <c r="BM63">
-        <v>0.01095699134119496</v>
+        <v>0.009668552496603892</v>
       </c>
       <c r="BN63">
         <v>1</v>
@@ -11045,15 +10985,15 @@
         <v>0</v>
       </c>
       <c r="BS63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="10:71">
       <c r="J64" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K64">
-        <v>0.0008901901603654555</v>
+        <v>0.0008888128206508761</v>
       </c>
       <c r="L64">
         <v>1</v>
@@ -11071,13 +11011,13 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB64" s="1" t="s">
         <v>112</v>
       </c>
       <c r="AC64">
-        <v>0.01004029446108727</v>
+        <v>0.008999898580270763</v>
       </c>
       <c r="AD64">
         <v>1</v>
@@ -11101,7 +11041,7 @@
         <v>112</v>
       </c>
       <c r="AU64">
-        <v>0.01069637172417393</v>
+        <v>0.009425321681626408</v>
       </c>
       <c r="AV64">
         <v>1</v>
@@ -11125,7 +11065,7 @@
         <v>112</v>
       </c>
       <c r="BM64">
-        <v>0.01095699134119496</v>
+        <v>0.009606969359682849</v>
       </c>
       <c r="BN64">
         <v>1</v>
@@ -11148,10 +11088,10 @@
     </row>
     <row r="65" spans="10:71">
       <c r="J65" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K65">
-        <v>0.0008901901603654555</v>
+        <v>0.000883671009499316</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -11175,7 +11115,7 @@
         <v>113</v>
       </c>
       <c r="AC65">
-        <v>0.01004029446108727</v>
+        <v>0.008999898580270763</v>
       </c>
       <c r="AD65">
         <v>1</v>
@@ -11199,7 +11139,7 @@
         <v>113</v>
       </c>
       <c r="AU65">
-        <v>0.01069637172417393</v>
+        <v>0.009425321681626408</v>
       </c>
       <c r="AV65">
         <v>1</v>
@@ -11223,7 +11163,7 @@
         <v>113</v>
       </c>
       <c r="BM65">
-        <v>0.01095699134119496</v>
+        <v>0.009606969359682849</v>
       </c>
       <c r="BN65">
         <v>1</v>
@@ -11246,10 +11186,10 @@
     </row>
     <row r="66" spans="10:71">
       <c r="J66" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K66">
-        <v>0.0008901901603654555</v>
+        <v>0.000883671009499316</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -11273,7 +11213,7 @@
         <v>114</v>
       </c>
       <c r="AC66">
-        <v>0.01004029446108727</v>
+        <v>0.008999898580270763</v>
       </c>
       <c r="AD66">
         <v>1</v>
@@ -11297,7 +11237,7 @@
         <v>114</v>
       </c>
       <c r="AU66">
-        <v>0.01069637172417393</v>
+        <v>0.009425321681626408</v>
       </c>
       <c r="AV66">
         <v>1</v>
@@ -11321,7 +11261,7 @@
         <v>114</v>
       </c>
       <c r="BM66">
-        <v>0.01095699134119496</v>
+        <v>0.009606969359682849</v>
       </c>
       <c r="BN66">
         <v>1</v>
@@ -11344,10 +11284,10 @@
     </row>
     <row r="67" spans="10:71">
       <c r="J67" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K67">
-        <v>0.0008901901603654555</v>
+        <v>0.000883671009499316</v>
       </c>
       <c r="L67">
         <v>1</v>
@@ -11371,7 +11311,7 @@
         <v>115</v>
       </c>
       <c r="AC67">
-        <v>0.01004029446108727</v>
+        <v>0.008999898580270763</v>
       </c>
       <c r="AD67">
         <v>1</v>
@@ -11395,7 +11335,7 @@
         <v>115</v>
       </c>
       <c r="AU67">
-        <v>0.01069637172417393</v>
+        <v>0.009425321681626408</v>
       </c>
       <c r="AV67">
         <v>1</v>
@@ -11419,7 +11359,7 @@
         <v>115</v>
       </c>
       <c r="BM67">
-        <v>0.01095699134119496</v>
+        <v>0.009606969359682849</v>
       </c>
       <c r="BN67">
         <v>1</v>
@@ -11442,10 +11382,10 @@
     </row>
     <row r="68" spans="10:71">
       <c r="J68" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K68">
-        <v>0.0008850578757289495</v>
+        <v>0.000883671009499316</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -11463,13 +11403,13 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB68" s="1" t="s">
         <v>116</v>
       </c>
       <c r="AC68">
-        <v>0.009964842591360575</v>
+        <v>0.008999898580270763</v>
       </c>
       <c r="AD68">
         <v>1</v>
@@ -11487,13 +11427,13 @@
         <v>0</v>
       </c>
       <c r="AI68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT68" s="1" t="s">
         <v>116</v>
       </c>
       <c r="AU68">
-        <v>0.01062129256511446</v>
+        <v>0.009425321681626408</v>
       </c>
       <c r="AV68">
         <v>1</v>
@@ -11511,13 +11451,13 @@
         <v>0</v>
       </c>
       <c r="BA68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL68" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BM68">
-        <v>0.01088206023742839</v>
+        <v>0.009606969359682849</v>
       </c>
       <c r="BN68">
         <v>1</v>
@@ -11535,15 +11475,15 @@
         <v>0</v>
       </c>
       <c r="BS68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="10:71">
       <c r="J69" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K69">
-        <v>0.0008850578757289495</v>
+        <v>0.000883671009499316</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -11561,13 +11501,13 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB69" s="1" t="s">
         <v>117</v>
       </c>
       <c r="AC69">
-        <v>0.009964842591360575</v>
+        <v>0.008999898580270763</v>
       </c>
       <c r="AD69">
         <v>1</v>
@@ -11585,13 +11525,13 @@
         <v>0</v>
       </c>
       <c r="AI69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT69" s="1" t="s">
         <v>117</v>
       </c>
       <c r="AU69">
-        <v>0.01062129256511446</v>
+        <v>0.009425321681626408</v>
       </c>
       <c r="AV69">
         <v>1</v>
@@ -11609,13 +11549,13 @@
         <v>0</v>
       </c>
       <c r="BA69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL69" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BM69">
-        <v>0.01088206023742839</v>
+        <v>0.009606969359682849</v>
       </c>
       <c r="BN69">
         <v>1</v>
@@ -11633,15 +11573,15 @@
         <v>0</v>
       </c>
       <c r="BS69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="10:71">
       <c r="J70" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K70">
-        <v>0.0008799255910924436</v>
+        <v>0.000883671009499316</v>
       </c>
       <c r="L70">
         <v>1</v>
@@ -11659,13 +11599,13 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB70" s="1" t="s">
         <v>118</v>
       </c>
       <c r="AC70">
-        <v>0.009889390721633877</v>
+        <v>0.008999898580270763</v>
       </c>
       <c r="AD70">
         <v>1</v>
@@ -11683,13 +11623,13 @@
         <v>0</v>
       </c>
       <c r="AI70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT70" s="1" t="s">
         <v>118</v>
       </c>
       <c r="AU70">
-        <v>0.010546213406055</v>
+        <v>0.009425321681626408</v>
       </c>
       <c r="AV70">
         <v>1</v>
@@ -11707,13 +11647,13 @@
         <v>0</v>
       </c>
       <c r="BA70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BL70" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BM70">
-        <v>0.01080712913366182</v>
+        <v>0.009606969359682849</v>
       </c>
       <c r="BN70">
         <v>1</v>
@@ -11731,15 +11671,15 @@
         <v>0</v>
       </c>
       <c r="BS70">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="10:71">
       <c r="J71" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K71">
-        <v>0.0008799255910924436</v>
+        <v>0.000883671009499316</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -11757,13 +11697,13 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB71" s="1" t="s">
         <v>119</v>
       </c>
       <c r="AC71">
-        <v>0.009889390721633877</v>
+        <v>0.008999898580270763</v>
       </c>
       <c r="AD71">
         <v>1</v>
@@ -11781,13 +11721,13 @@
         <v>0</v>
       </c>
       <c r="AI71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT71" s="1" t="s">
         <v>119</v>
       </c>
       <c r="AU71">
-        <v>0.010546213406055</v>
+        <v>0.009425321681626408</v>
       </c>
       <c r="AV71">
         <v>1</v>
@@ -11805,13 +11745,13 @@
         <v>0</v>
       </c>
       <c r="BA71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BL71" s="1" t="s">
         <v>119</v>
       </c>
       <c r="BM71">
-        <v>0.01080712913366182</v>
+        <v>0.009606969359682849</v>
       </c>
       <c r="BN71">
         <v>1</v>
@@ -11829,15 +11769,15 @@
         <v>0</v>
       </c>
       <c r="BS71">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="10:71">
       <c r="J72" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K72">
-        <v>0.0008799255910924436</v>
+        <v>0.000883671009499316</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -11855,13 +11795,13 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB72" s="1" t="s">
         <v>120</v>
       </c>
       <c r="AC72">
-        <v>0.009889390721633877</v>
+        <v>0.008999898580270763</v>
       </c>
       <c r="AD72">
         <v>1</v>
@@ -11879,13 +11819,13 @@
         <v>0</v>
       </c>
       <c r="AI72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT72" s="1" t="s">
         <v>120</v>
       </c>
       <c r="AU72">
-        <v>0.010546213406055</v>
+        <v>0.009425321681626408</v>
       </c>
       <c r="AV72">
         <v>1</v>
@@ -11903,13 +11843,13 @@
         <v>0</v>
       </c>
       <c r="BA72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BL72" s="1" t="s">
         <v>120</v>
       </c>
       <c r="BM72">
-        <v>0.01080712913366182</v>
+        <v>0.009606969359682849</v>
       </c>
       <c r="BN72">
         <v>1</v>
@@ -11927,15 +11867,15 @@
         <v>0</v>
       </c>
       <c r="BS72">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="10:71">
       <c r="J73" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K73">
-        <v>0.0008799255910924436</v>
+        <v>0.000883671009499316</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -11953,13 +11893,13 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB73" s="1" t="s">
         <v>121</v>
       </c>
       <c r="AC73">
-        <v>0.009889390721633877</v>
+        <v>0.008999898580270763</v>
       </c>
       <c r="AD73">
         <v>1</v>
@@ -11977,13 +11917,13 @@
         <v>0</v>
       </c>
       <c r="AI73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT73" s="1" t="s">
         <v>121</v>
       </c>
       <c r="AU73">
-        <v>0.010546213406055</v>
+        <v>0.009425321681626408</v>
       </c>
       <c r="AV73">
         <v>1</v>
@@ -12001,13 +11941,13 @@
         <v>0</v>
       </c>
       <c r="BA73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BL73" s="1" t="s">
         <v>121</v>
       </c>
       <c r="BM73">
-        <v>0.01080712913366182</v>
+        <v>0.009606969359682849</v>
       </c>
       <c r="BN73">
         <v>1</v>
@@ -12025,15 +11965,15 @@
         <v>0</v>
       </c>
       <c r="BS73">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="10:71">
       <c r="J74" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K74">
-        <v>0.0008747933064559378</v>
+        <v>0.000883671009499316</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -12051,13 +11991,13 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB74" s="1" t="s">
         <v>122</v>
       </c>
       <c r="AC74">
-        <v>0.009813938851907176</v>
+        <v>0.008999898580270763</v>
       </c>
       <c r="AD74">
         <v>1</v>
@@ -12075,13 +12015,13 @@
         <v>0</v>
       </c>
       <c r="AI74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT74" s="1" t="s">
         <v>122</v>
       </c>
       <c r="AU74">
-        <v>0.01047113424699553</v>
+        <v>0.009425321681626408</v>
       </c>
       <c r="AV74">
         <v>1</v>
@@ -12099,13 +12039,13 @@
         <v>0</v>
       </c>
       <c r="BA74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BL74" s="1" t="s">
         <v>122</v>
       </c>
       <c r="BM74">
-        <v>0.01073219802989526</v>
+        <v>0.009606969359682849</v>
       </c>
       <c r="BN74">
         <v>1</v>
@@ -12123,15 +12063,15 @@
         <v>0</v>
       </c>
       <c r="BS74">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="10:71">
       <c r="J75" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K75">
-        <v>0.0008747933064559378</v>
+        <v>0.000883671009499316</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -12149,13 +12089,13 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB75" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AC75">
-        <v>0.009813938851907176</v>
+        <v>0.008999898580270763</v>
       </c>
       <c r="AD75">
         <v>1</v>
@@ -12173,13 +12113,13 @@
         <v>0</v>
       </c>
       <c r="AI75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT75" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AU75">
-        <v>0.01047113424699553</v>
+        <v>0.009425321681626408</v>
       </c>
       <c r="AV75">
         <v>1</v>
@@ -12197,13 +12137,13 @@
         <v>0</v>
       </c>
       <c r="BA75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BL75" s="1" t="s">
         <v>123</v>
       </c>
       <c r="BM75">
-        <v>0.01073219802989526</v>
+        <v>0.009606969359682849</v>
       </c>
       <c r="BN75">
         <v>1</v>
@@ -12221,15 +12161,15 @@
         <v>0</v>
       </c>
       <c r="BS75">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="10:71">
       <c r="J76" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K76">
-        <v>0.0008696610218194318</v>
+        <v>0.000883671009499316</v>
       </c>
       <c r="L76">
         <v>1</v>
@@ -12247,13 +12187,13 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB76" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AC76">
-        <v>0.009738486982180477</v>
+        <v>0.008999898580270763</v>
       </c>
       <c r="AD76">
         <v>1</v>
@@ -12271,13 +12211,13 @@
         <v>0</v>
       </c>
       <c r="AI76">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AT76" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AU76">
-        <v>0.01039605508793606</v>
+        <v>0.009425321681626408</v>
       </c>
       <c r="AV76">
         <v>1</v>
@@ -12295,13 +12235,13 @@
         <v>0</v>
       </c>
       <c r="BA76">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BL76" s="1" t="s">
         <v>124</v>
       </c>
       <c r="BM76">
-        <v>0.01065726692612869</v>
+        <v>0.009606969359682849</v>
       </c>
       <c r="BN76">
         <v>1</v>
@@ -12319,15 +12259,15 @@
         <v>0</v>
       </c>
       <c r="BS76">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="10:71">
       <c r="J77" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K77">
-        <v>0.0008696610218194318</v>
+        <v>0.000883671009499316</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -12345,13 +12285,13 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB77" s="1" t="s">
         <v>125</v>
       </c>
       <c r="AC77">
-        <v>0.009738486982180477</v>
+        <v>0.008999898580270763</v>
       </c>
       <c r="AD77">
         <v>1</v>
@@ -12369,13 +12309,13 @@
         <v>0</v>
       </c>
       <c r="AI77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AT77" s="1" t="s">
         <v>125</v>
       </c>
       <c r="AU77">
-        <v>0.01039605508793606</v>
+        <v>0.009425321681626408</v>
       </c>
       <c r="AV77">
         <v>1</v>
@@ -12393,13 +12333,13 @@
         <v>0</v>
       </c>
       <c r="BA77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BL77" s="1" t="s">
         <v>125</v>
       </c>
       <c r="BM77">
-        <v>0.01065726692612869</v>
+        <v>0.009606969359682849</v>
       </c>
       <c r="BN77">
         <v>1</v>
@@ -12417,15 +12357,15 @@
         <v>0</v>
       </c>
       <c r="BS77">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="10:71">
       <c r="J78" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K78">
-        <v>0.0008645287371829259</v>
+        <v>0.000883671009499316</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -12443,13 +12383,13 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB78" s="1" t="s">
         <v>126</v>
       </c>
       <c r="AC78">
-        <v>0.009663035112453778</v>
+        <v>0.008942206922704924</v>
       </c>
       <c r="AD78">
         <v>1</v>
@@ -12467,13 +12407,13 @@
         <v>0</v>
       </c>
       <c r="AI78">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AT78" s="1" t="s">
         <v>126</v>
       </c>
       <c r="AU78">
-        <v>0.01032097592887659</v>
+        <v>0.009364902952898034</v>
       </c>
       <c r="AV78">
         <v>1</v>
@@ -12491,13 +12431,13 @@
         <v>0</v>
       </c>
       <c r="BA78">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BL78" s="1" t="s">
         <v>126</v>
       </c>
       <c r="BM78">
-        <v>0.01058233582236212</v>
+        <v>0.009545386222761805</v>
       </c>
       <c r="BN78">
         <v>1</v>
@@ -12515,15 +12455,15 @@
         <v>0</v>
       </c>
       <c r="BS78">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="10:71">
       <c r="J79" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K79">
-        <v>0.0008645287371829259</v>
+        <v>0.000878529198347756</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -12541,13 +12481,13 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AB79" s="1" t="s">
         <v>127</v>
       </c>
       <c r="AC79">
-        <v>0.009663035112453778</v>
+        <v>0.008942206922704924</v>
       </c>
       <c r="AD79">
         <v>1</v>
@@ -12565,13 +12505,13 @@
         <v>0</v>
       </c>
       <c r="AI79">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AT79" s="1" t="s">
         <v>127</v>
       </c>
       <c r="AU79">
-        <v>0.01032097592887659</v>
+        <v>0.009364902952898034</v>
       </c>
       <c r="AV79">
         <v>1</v>
@@ -12589,13 +12529,13 @@
         <v>0</v>
       </c>
       <c r="BA79">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BL79" s="1" t="s">
         <v>127</v>
       </c>
       <c r="BM79">
-        <v>0.01058233582236212</v>
+        <v>0.009545386222761805</v>
       </c>
       <c r="BN79">
         <v>1</v>
@@ -12613,15 +12553,15 @@
         <v>0</v>
       </c>
       <c r="BS79">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="10:71">
       <c r="J80" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K80">
-        <v>0.0008593964525464198</v>
+        <v>0.000878529198347756</v>
       </c>
       <c r="L80">
         <v>1</v>
@@ -12639,13 +12579,13 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AB80" s="1" t="s">
         <v>128</v>
       </c>
       <c r="AC80">
-        <v>0.009587583242727078</v>
+        <v>0.008942206922704924</v>
       </c>
       <c r="AD80">
         <v>1</v>
@@ -12663,13 +12603,13 @@
         <v>0</v>
       </c>
       <c r="AI80">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AT80" s="1" t="s">
         <v>128</v>
       </c>
       <c r="AU80">
-        <v>0.01024589676981712</v>
+        <v>0.009364902952898034</v>
       </c>
       <c r="AV80">
         <v>1</v>
@@ -12687,13 +12627,13 @@
         <v>0</v>
       </c>
       <c r="BA80">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BL80" s="1" t="s">
         <v>128</v>
       </c>
       <c r="BM80">
-        <v>0.01050740471859556</v>
+        <v>0.009545386222761805</v>
       </c>
       <c r="BN80">
         <v>1</v>
@@ -12711,15 +12651,15 @@
         <v>0</v>
       </c>
       <c r="BS80">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="10:71">
       <c r="J81" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K81">
-        <v>0.0008542641679099139</v>
+        <v>0.000878529198347756</v>
       </c>
       <c r="L81">
         <v>1</v>
@@ -12737,13 +12677,13 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AB81" s="1" t="s">
         <v>129</v>
       </c>
       <c r="AC81">
-        <v>0.009512131373000381</v>
+        <v>0.008942206922704924</v>
       </c>
       <c r="AD81">
         <v>1</v>
@@ -12761,13 +12701,13 @@
         <v>0</v>
       </c>
       <c r="AI81">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AT81" s="1" t="s">
         <v>129</v>
       </c>
       <c r="AU81">
-        <v>0.01017081761075765</v>
+        <v>0.009364902952898034</v>
       </c>
       <c r="AV81">
         <v>1</v>
@@ -12785,13 +12725,13 @@
         <v>0</v>
       </c>
       <c r="BA81">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BL81" s="1" t="s">
         <v>129</v>
       </c>
       <c r="BM81">
-        <v>0.01043247361482899</v>
+        <v>0.009545386222761805</v>
       </c>
       <c r="BN81">
         <v>1</v>
@@ -12809,15 +12749,15 @@
         <v>0</v>
       </c>
       <c r="BS81">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="10:71">
       <c r="J82" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K82">
-        <v>0.0008542641679099139</v>
+        <v>0.000878529198347756</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -12835,13 +12775,13 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AB82" s="1" t="s">
         <v>130</v>
       </c>
       <c r="AC82">
-        <v>0.009512131373000381</v>
+        <v>0.008942206922704924</v>
       </c>
       <c r="AD82">
         <v>1</v>
@@ -12859,13 +12799,13 @@
         <v>0</v>
       </c>
       <c r="AI82">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AT82" s="1" t="s">
         <v>130</v>
       </c>
       <c r="AU82">
-        <v>0.01017081761075765</v>
+        <v>0.009364902952898034</v>
       </c>
       <c r="AV82">
         <v>1</v>
@@ -12883,13 +12823,13 @@
         <v>0</v>
       </c>
       <c r="BA82">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BL82" s="1" t="s">
         <v>130</v>
       </c>
       <c r="BM82">
-        <v>0.01043247361482899</v>
+        <v>0.009545386222761805</v>
       </c>
       <c r="BN82">
         <v>1</v>
@@ -12907,15 +12847,15 @@
         <v>0</v>
       </c>
       <c r="BS82">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="10:71">
       <c r="J83" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K83">
-        <v>0.000849131883273408</v>
+        <v>0.000878529198347756</v>
       </c>
       <c r="L83">
         <v>1</v>
@@ -12933,13 +12873,13 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AB83" s="1" t="s">
         <v>131</v>
       </c>
       <c r="AC83">
-        <v>0.009436679503273681</v>
+        <v>0.008884515265139087</v>
       </c>
       <c r="AD83">
         <v>1</v>
@@ -12957,13 +12897,13 @@
         <v>0</v>
       </c>
       <c r="AI83">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AT83" s="1" t="s">
         <v>131</v>
       </c>
       <c r="AU83">
-        <v>0.01009573845169818</v>
+        <v>0.00930448422416966</v>
       </c>
       <c r="AV83">
         <v>1</v>
@@ -12981,13 +12921,13 @@
         <v>0</v>
       </c>
       <c r="BA83">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BL83" s="1" t="s">
         <v>131</v>
       </c>
       <c r="BM83">
-        <v>0.01035754251106242</v>
+        <v>0.009483803085840761</v>
       </c>
       <c r="BN83">
         <v>1</v>
@@ -13005,15 +12945,15 @@
         <v>0</v>
       </c>
       <c r="BS83">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="10:71">
       <c r="J84" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K84">
-        <v>0.0008337350293638901</v>
+        <v>0.000873387387196196</v>
       </c>
       <c r="L84">
         <v>1</v>
@@ -13031,13 +12971,13 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AB84" s="1" t="s">
         <v>132</v>
       </c>
       <c r="AC84">
-        <v>0.009210323894093582</v>
+        <v>0.008884515265139087</v>
       </c>
       <c r="AD84">
         <v>1</v>
@@ -13055,13 +12995,13 @@
         <v>0</v>
       </c>
       <c r="AI84">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AT84" s="1" t="s">
         <v>132</v>
       </c>
       <c r="AU84">
-        <v>0.009870500974519771</v>
+        <v>0.00930448422416966</v>
       </c>
       <c r="AV84">
         <v>1</v>
@@ -13079,13 +13019,13 @@
         <v>0</v>
       </c>
       <c r="BA84">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BL84" s="1" t="s">
         <v>132</v>
       </c>
       <c r="BM84">
-        <v>0.01013274919976272</v>
+        <v>0.009483803085840761</v>
       </c>
       <c r="BN84">
         <v>1</v>
@@ -13103,15 +13043,15 @@
         <v>0</v>
       </c>
       <c r="BS84">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="10:71">
       <c r="J85" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K85">
-        <v>0.0008183381754543723</v>
+        <v>0.000873387387196196</v>
       </c>
       <c r="L85">
         <v>1</v>
@@ -13129,13 +13069,13 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AB85" s="1" t="s">
         <v>133</v>
       </c>
       <c r="AC85">
-        <v>0.008983968284913485</v>
+        <v>0.008884515265139087</v>
       </c>
       <c r="AD85">
         <v>1</v>
@@ -13153,13 +13093,13 @@
         <v>0</v>
       </c>
       <c r="AI85">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AT85" s="1" t="s">
         <v>133</v>
       </c>
       <c r="AU85">
-        <v>0.009645263497341362</v>
+        <v>0.00930448422416966</v>
       </c>
       <c r="AV85">
         <v>1</v>
@@ -13177,13 +13117,13 @@
         <v>0</v>
       </c>
       <c r="BA85">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="BL85" s="1" t="s">
         <v>133</v>
       </c>
       <c r="BM85">
-        <v>0.009907955888463023</v>
+        <v>0.009483803085840761</v>
       </c>
       <c r="BN85">
         <v>1</v>
@@ -13201,15 +13141,15 @@
         <v>0</v>
       </c>
       <c r="BS85">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="10:71">
       <c r="J86" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K86">
-        <v>0.0008132058908178664</v>
+        <v>0.000873387387196196</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -13227,13 +13167,13 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AB86" s="1" t="s">
         <v>134</v>
       </c>
       <c r="AC86">
-        <v>0.008908516415186786</v>
+        <v>0.008884515265139087</v>
       </c>
       <c r="AD86">
         <v>1</v>
@@ -13251,13 +13191,13 @@
         <v>0</v>
       </c>
       <c r="AI86">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AT86" s="1" t="s">
         <v>134</v>
       </c>
       <c r="AU86">
-        <v>0.009570184338281893</v>
+        <v>0.00930448422416966</v>
       </c>
       <c r="AV86">
         <v>1</v>
@@ -13275,13 +13215,13 @@
         <v>0</v>
       </c>
       <c r="BA86">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="BL86" s="1" t="s">
         <v>134</v>
       </c>
       <c r="BM86">
-        <v>0.009833024784696456</v>
+        <v>0.009483803085840761</v>
       </c>
       <c r="BN86">
         <v>1</v>
@@ -13299,15 +13239,15 @@
         <v>0</v>
       </c>
       <c r="BS86">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="10:71">
       <c r="J87" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K87">
-        <v>0.0007310893366337713</v>
+        <v>0.000873387387196196</v>
       </c>
       <c r="L87">
         <v>1</v>
@@ -13325,13 +13265,13 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="AB87" s="1" t="s">
         <v>135</v>
       </c>
       <c r="AC87">
-        <v>0.007701286499559597</v>
+        <v>0.008826823607573248</v>
       </c>
       <c r="AD87">
         <v>1</v>
@@ -13349,13 +13289,13 @@
         <v>0</v>
       </c>
       <c r="AI87">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AT87" s="1" t="s">
         <v>135</v>
       </c>
       <c r="AU87">
-        <v>0.008368917793330384</v>
+        <v>0.009244065495441286</v>
       </c>
       <c r="AV87">
         <v>1</v>
@@ -13373,13 +13313,13 @@
         <v>0</v>
       </c>
       <c r="BA87">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="BL87" s="1" t="s">
         <v>135</v>
       </c>
       <c r="BM87">
-        <v>0.008634127124431391</v>
+        <v>0.009422219948919718</v>
       </c>
       <c r="BN87">
         <v>1</v>
@@ -13397,15 +13337,15 @@
         <v>0</v>
       </c>
       <c r="BS87">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="10:71">
       <c r="J88" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K88">
-        <v>0.0007002956288147355</v>
+        <v>0.0008682455760446359</v>
       </c>
       <c r="L88">
         <v>1</v>
@@ -13423,13 +13363,13 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="AB88" s="1" t="s">
         <v>136</v>
       </c>
       <c r="AC88">
-        <v>0.007248575281199401</v>
+        <v>0.008826823607573248</v>
       </c>
       <c r="AD88">
         <v>1</v>
@@ -13447,13 +13387,13 @@
         <v>0</v>
       </c>
       <c r="AI88">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="AT88" s="1" t="s">
         <v>136</v>
       </c>
       <c r="AU88">
-        <v>0.007918442838973567</v>
+        <v>0.009244065495441286</v>
       </c>
       <c r="AV88">
         <v>1</v>
@@ -13471,13 +13411,13 @@
         <v>0</v>
       </c>
       <c r="BA88">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="BL88" s="1" t="s">
         <v>136</v>
       </c>
       <c r="BM88">
-        <v>0.008184540501831991</v>
+        <v>0.009422219948919718</v>
       </c>
       <c r="BN88">
         <v>1</v>
@@ -13495,15 +13435,15 @@
         <v>0</v>
       </c>
       <c r="BS88">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="10:71">
       <c r="J89" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K89">
-        <v>0.0006900310595417237</v>
+        <v>0.0008682455760446359</v>
       </c>
       <c r="L89">
         <v>1</v>
@@ -13521,13 +13461,13 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="AB89" s="1" t="s">
         <v>137</v>
       </c>
       <c r="AC89">
-        <v>0.007097671541746003</v>
+        <v>0.008826823607573248</v>
       </c>
       <c r="AD89">
         <v>1</v>
@@ -13545,13 +13485,13 @@
         <v>0</v>
       </c>
       <c r="AI89">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="AT89" s="1" t="s">
         <v>137</v>
       </c>
       <c r="AU89">
-        <v>0.007768284520854628</v>
+        <v>0.009244065495441286</v>
       </c>
       <c r="AV89">
         <v>1</v>
@@ -13569,13 +13509,13 @@
         <v>0</v>
       </c>
       <c r="BA89">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="BL89" s="1" t="s">
         <v>137</v>
       </c>
       <c r="BM89">
-        <v>0.008034678294298858</v>
+        <v>0.009422219948919718</v>
       </c>
       <c r="BN89">
         <v>1</v>
@@ -13593,15 +13533,15 @@
         <v>0</v>
       </c>
       <c r="BS89">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="10:71">
       <c r="J90" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K90">
-        <v>0.0006643696363591938</v>
+        <v>0.0008682455760446359</v>
       </c>
       <c r="L90">
         <v>1</v>
@@ -13619,13 +13559,13 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="AB90" s="1" t="s">
         <v>138</v>
       </c>
       <c r="AC90">
-        <v>0.006720412193112505</v>
+        <v>0.008826823607573248</v>
       </c>
       <c r="AD90">
         <v>1</v>
@@ -13643,13 +13583,13 @@
         <v>0</v>
       </c>
       <c r="AI90">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="AT90" s="1" t="s">
         <v>138</v>
       </c>
       <c r="AU90">
-        <v>0.007392888725557281</v>
+        <v>0.009244065495441286</v>
       </c>
       <c r="AV90">
         <v>1</v>
@@ -13667,13 +13607,13 @@
         <v>0</v>
       </c>
       <c r="BA90">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="BL90" s="1" t="s">
         <v>138</v>
       </c>
       <c r="BM90">
-        <v>0.007660022775466024</v>
+        <v>0.009422219948919718</v>
       </c>
       <c r="BN90">
         <v>1</v>
@@ -13691,21 +13631,21 @@
         <v>0</v>
       </c>
       <c r="BS90">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="10:71">
       <c r="J91" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K91">
-        <v>0.0005449134065262678</v>
+        <v>0.0008682455760446359</v>
       </c>
       <c r="L91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -13717,19 +13657,19 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>156</v>
+        <v>4</v>
       </c>
       <c r="AB91" s="1" t="s">
         <v>139</v>
       </c>
       <c r="AC91">
-        <v>0</v>
+        <v>0.008769131950007411</v>
       </c>
       <c r="AD91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF91">
         <v>1</v>
@@ -13741,19 +13681,19 @@
         <v>0</v>
       </c>
       <c r="AI91">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="AT91" s="1" t="s">
         <v>139</v>
       </c>
       <c r="AU91">
-        <v>0</v>
+        <v>0.00918364676671291</v>
       </c>
       <c r="AV91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX91">
         <v>1</v>
@@ -13765,19 +13705,19 @@
         <v>0</v>
       </c>
       <c r="BA91">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="BL91" s="1" t="s">
         <v>139</v>
       </c>
       <c r="BM91">
-        <v>0</v>
+        <v>0.009360636811998673</v>
       </c>
       <c r="BN91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP91">
         <v>1</v>
@@ -13789,7 +13729,1281 @@
         <v>0</v>
       </c>
       <c r="BS91">
-        <v>156</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="10:71">
+      <c r="J92" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K92">
+        <v>0.0008631037648930759</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>5</v>
+      </c>
+      <c r="AB92" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC92">
+        <v>0.008769131950007411</v>
+      </c>
+      <c r="AD92">
+        <v>1</v>
+      </c>
+      <c r="AE92">
+        <v>1</v>
+      </c>
+      <c r="AF92">
+        <v>1</v>
+      </c>
+      <c r="AG92">
+        <v>0</v>
+      </c>
+      <c r="AH92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>5</v>
+      </c>
+      <c r="AT92" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU92">
+        <v>0.00918364676671291</v>
+      </c>
+      <c r="AV92">
+        <v>1</v>
+      </c>
+      <c r="AW92">
+        <v>1</v>
+      </c>
+      <c r="AX92">
+        <v>1</v>
+      </c>
+      <c r="AY92">
+        <v>0</v>
+      </c>
+      <c r="AZ92" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA92">
+        <v>5</v>
+      </c>
+      <c r="BL92" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BM92">
+        <v>0.009360636811998673</v>
+      </c>
+      <c r="BN92">
+        <v>1</v>
+      </c>
+      <c r="BO92">
+        <v>1</v>
+      </c>
+      <c r="BP92">
+        <v>1</v>
+      </c>
+      <c r="BQ92">
+        <v>0</v>
+      </c>
+      <c r="BR92" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="10:71">
+      <c r="J93" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K93">
+        <v>0.0008631037648930759</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>5</v>
+      </c>
+      <c r="AB93" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC93">
+        <v>0.008711440292441572</v>
+      </c>
+      <c r="AD93">
+        <v>1</v>
+      </c>
+      <c r="AE93">
+        <v>1</v>
+      </c>
+      <c r="AF93">
+        <v>1</v>
+      </c>
+      <c r="AG93">
+        <v>0</v>
+      </c>
+      <c r="AH93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>6</v>
+      </c>
+      <c r="AT93" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU93">
+        <v>0.009123228037984536</v>
+      </c>
+      <c r="AV93">
+        <v>1</v>
+      </c>
+      <c r="AW93">
+        <v>1</v>
+      </c>
+      <c r="AX93">
+        <v>1</v>
+      </c>
+      <c r="AY93">
+        <v>0</v>
+      </c>
+      <c r="AZ93" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA93">
+        <v>6</v>
+      </c>
+      <c r="BL93" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BM93">
+        <v>0.009299053675077629</v>
+      </c>
+      <c r="BN93">
+        <v>1</v>
+      </c>
+      <c r="BO93">
+        <v>1</v>
+      </c>
+      <c r="BP93">
+        <v>1</v>
+      </c>
+      <c r="BQ93">
+        <v>0</v>
+      </c>
+      <c r="BR93" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="10:71">
+      <c r="J94" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K94">
+        <v>0.000857961953741516</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>6</v>
+      </c>
+      <c r="AB94" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC94">
+        <v>0.008711440292441572</v>
+      </c>
+      <c r="AD94">
+        <v>1</v>
+      </c>
+      <c r="AE94">
+        <v>1</v>
+      </c>
+      <c r="AF94">
+        <v>1</v>
+      </c>
+      <c r="AG94">
+        <v>0</v>
+      </c>
+      <c r="AH94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>6</v>
+      </c>
+      <c r="AT94" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU94">
+        <v>0.009123228037984536</v>
+      </c>
+      <c r="AV94">
+        <v>1</v>
+      </c>
+      <c r="AW94">
+        <v>1</v>
+      </c>
+      <c r="AX94">
+        <v>1</v>
+      </c>
+      <c r="AY94">
+        <v>0</v>
+      </c>
+      <c r="AZ94" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA94">
+        <v>6</v>
+      </c>
+      <c r="BL94" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BM94">
+        <v>0.009299053675077629</v>
+      </c>
+      <c r="BN94">
+        <v>1</v>
+      </c>
+      <c r="BO94">
+        <v>1</v>
+      </c>
+      <c r="BP94">
+        <v>1</v>
+      </c>
+      <c r="BQ94">
+        <v>0</v>
+      </c>
+      <c r="BR94" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="10:71">
+      <c r="J95" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K95">
+        <v>0.000857961953741516</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>6</v>
+      </c>
+      <c r="AB95" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC95">
+        <v>0.008653748634875733</v>
+      </c>
+      <c r="AD95">
+        <v>1</v>
+      </c>
+      <c r="AE95">
+        <v>1</v>
+      </c>
+      <c r="AF95">
+        <v>1</v>
+      </c>
+      <c r="AG95">
+        <v>0</v>
+      </c>
+      <c r="AH95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>7</v>
+      </c>
+      <c r="AT95" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU95">
+        <v>0.009062809309256162</v>
+      </c>
+      <c r="AV95">
+        <v>1</v>
+      </c>
+      <c r="AW95">
+        <v>1</v>
+      </c>
+      <c r="AX95">
+        <v>1</v>
+      </c>
+      <c r="AY95">
+        <v>0</v>
+      </c>
+      <c r="AZ95" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA95">
+        <v>7</v>
+      </c>
+      <c r="BL95" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BM95">
+        <v>0.009237470538156586</v>
+      </c>
+      <c r="BN95">
+        <v>1</v>
+      </c>
+      <c r="BO95">
+        <v>1</v>
+      </c>
+      <c r="BP95">
+        <v>1</v>
+      </c>
+      <c r="BQ95">
+        <v>0</v>
+      </c>
+      <c r="BR95" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="10:71">
+      <c r="J96" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K96">
+        <v>0.0008528201425899558</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>7</v>
+      </c>
+      <c r="AB96" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC96">
+        <v>0.008596056977309896</v>
+      </c>
+      <c r="AD96">
+        <v>1</v>
+      </c>
+      <c r="AE96">
+        <v>1</v>
+      </c>
+      <c r="AF96">
+        <v>1</v>
+      </c>
+      <c r="AG96">
+        <v>0</v>
+      </c>
+      <c r="AH96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>8</v>
+      </c>
+      <c r="AT96" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU96">
+        <v>0.009002390580527788</v>
+      </c>
+      <c r="AV96">
+        <v>1</v>
+      </c>
+      <c r="AW96">
+        <v>1</v>
+      </c>
+      <c r="AX96">
+        <v>1</v>
+      </c>
+      <c r="AY96">
+        <v>0</v>
+      </c>
+      <c r="AZ96" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA96">
+        <v>8</v>
+      </c>
+      <c r="BL96" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM96">
+        <v>0.009175887401235542</v>
+      </c>
+      <c r="BN96">
+        <v>1</v>
+      </c>
+      <c r="BO96">
+        <v>1</v>
+      </c>
+      <c r="BP96">
+        <v>1</v>
+      </c>
+      <c r="BQ96">
+        <v>0</v>
+      </c>
+      <c r="BR96" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS96">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="10:71">
+      <c r="J97" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K97">
+        <v>0.0008476783314383959</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>8</v>
+      </c>
+      <c r="AB97" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC97">
+        <v>0.008538365319744057</v>
+      </c>
+      <c r="AD97">
+        <v>1</v>
+      </c>
+      <c r="AE97">
+        <v>1</v>
+      </c>
+      <c r="AF97">
+        <v>1</v>
+      </c>
+      <c r="AG97">
+        <v>0</v>
+      </c>
+      <c r="AH97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>9</v>
+      </c>
+      <c r="AT97" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU97">
+        <v>0.008941971851799412</v>
+      </c>
+      <c r="AV97">
+        <v>1</v>
+      </c>
+      <c r="AW97">
+        <v>1</v>
+      </c>
+      <c r="AX97">
+        <v>1</v>
+      </c>
+      <c r="AY97">
+        <v>0</v>
+      </c>
+      <c r="AZ97" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA97">
+        <v>9</v>
+      </c>
+      <c r="BL97" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BM97">
+        <v>0.009114304264314498</v>
+      </c>
+      <c r="BN97">
+        <v>1</v>
+      </c>
+      <c r="BO97">
+        <v>1</v>
+      </c>
+      <c r="BP97">
+        <v>1</v>
+      </c>
+      <c r="BQ97">
+        <v>0</v>
+      </c>
+      <c r="BR97" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS97">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="10:71">
+      <c r="J98" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K98">
+        <v>0.0008425365202868358</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>9</v>
+      </c>
+      <c r="AB98" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC98">
+        <v>0.008538365319744057</v>
+      </c>
+      <c r="AD98">
+        <v>1</v>
+      </c>
+      <c r="AE98">
+        <v>1</v>
+      </c>
+      <c r="AF98">
+        <v>1</v>
+      </c>
+      <c r="AG98">
+        <v>0</v>
+      </c>
+      <c r="AH98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>9</v>
+      </c>
+      <c r="AT98" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU98">
+        <v>0.008941971851799412</v>
+      </c>
+      <c r="AV98">
+        <v>1</v>
+      </c>
+      <c r="AW98">
+        <v>1</v>
+      </c>
+      <c r="AX98">
+        <v>1</v>
+      </c>
+      <c r="AY98">
+        <v>0</v>
+      </c>
+      <c r="AZ98" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA98">
+        <v>9</v>
+      </c>
+      <c r="BL98" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BM98">
+        <v>0.009114304264314498</v>
+      </c>
+      <c r="BN98">
+        <v>1</v>
+      </c>
+      <c r="BO98">
+        <v>1</v>
+      </c>
+      <c r="BP98">
+        <v>1</v>
+      </c>
+      <c r="BQ98">
+        <v>0</v>
+      </c>
+      <c r="BR98" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS98">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="10:71">
+      <c r="J99" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K99">
+        <v>0.0008425365202868358</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>9</v>
+      </c>
+      <c r="AB99" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC99">
+        <v>0.008522931882688229</v>
+      </c>
+      <c r="AD99">
+        <v>2</v>
+      </c>
+      <c r="AE99">
+        <v>2</v>
+      </c>
+      <c r="AF99">
+        <v>1</v>
+      </c>
+      <c r="AG99">
+        <v>0</v>
+      </c>
+      <c r="AH99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>31</v>
+      </c>
+      <c r="AT99" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU99">
+        <v>0.00863987820815754</v>
+      </c>
+      <c r="AV99">
+        <v>1</v>
+      </c>
+      <c r="AW99">
+        <v>1</v>
+      </c>
+      <c r="AX99">
+        <v>1</v>
+      </c>
+      <c r="AY99">
+        <v>0</v>
+      </c>
+      <c r="AZ99" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA99">
+        <v>14</v>
+      </c>
+      <c r="BL99" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM99">
+        <v>0.008806388579709277</v>
+      </c>
+      <c r="BN99">
+        <v>1</v>
+      </c>
+      <c r="BO99">
+        <v>1</v>
+      </c>
+      <c r="BP99">
+        <v>1</v>
+      </c>
+      <c r="BQ99">
+        <v>0</v>
+      </c>
+      <c r="BR99" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS99">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="10:71">
+      <c r="J100" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K100">
+        <v>0.0008168274645290357</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>14</v>
+      </c>
+      <c r="AB100" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC100">
+        <v>0.008249907031914866</v>
+      </c>
+      <c r="AD100">
+        <v>1</v>
+      </c>
+      <c r="AE100">
+        <v>1</v>
+      </c>
+      <c r="AF100">
+        <v>1</v>
+      </c>
+      <c r="AG100">
+        <v>0</v>
+      </c>
+      <c r="AH100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>14</v>
+      </c>
+      <c r="AT100" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU100">
+        <v>0.008519040750700792</v>
+      </c>
+      <c r="AV100">
+        <v>1</v>
+      </c>
+      <c r="AW100">
+        <v>1</v>
+      </c>
+      <c r="AX100">
+        <v>1</v>
+      </c>
+      <c r="AY100">
+        <v>0</v>
+      </c>
+      <c r="AZ100" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA100">
+        <v>16</v>
+      </c>
+      <c r="BL100" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM100">
+        <v>0.00868322230586719</v>
+      </c>
+      <c r="BN100">
+        <v>1</v>
+      </c>
+      <c r="BO100">
+        <v>1</v>
+      </c>
+      <c r="BP100">
+        <v>1</v>
+      </c>
+      <c r="BQ100">
+        <v>0</v>
+      </c>
+      <c r="BR100" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS100">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="10:71">
+      <c r="J101" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K101">
+        <v>0.0008065438422259156</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>16</v>
+      </c>
+      <c r="AB101" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC101">
+        <v>0.00813452371678319</v>
+      </c>
+      <c r="AD101">
+        <v>1</v>
+      </c>
+      <c r="AE101">
+        <v>1</v>
+      </c>
+      <c r="AF101">
+        <v>1</v>
+      </c>
+      <c r="AG101">
+        <v>0</v>
+      </c>
+      <c r="AH101" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>16</v>
+      </c>
+      <c r="AT101" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU101">
+        <v>0.008363073568351021</v>
+      </c>
+      <c r="AV101">
+        <v>2</v>
+      </c>
+      <c r="AW101">
+        <v>2</v>
+      </c>
+      <c r="AX101">
+        <v>1</v>
+      </c>
+      <c r="AY101">
+        <v>0</v>
+      </c>
+      <c r="AZ101" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA101">
+        <v>31</v>
+      </c>
+      <c r="BL101" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM101">
+        <v>0.008294817069056886</v>
+      </c>
+      <c r="BN101">
+        <v>2</v>
+      </c>
+      <c r="BO101">
+        <v>2</v>
+      </c>
+      <c r="BP101">
+        <v>1</v>
+      </c>
+      <c r="BQ101">
+        <v>0</v>
+      </c>
+      <c r="BR101" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS101">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="10:71">
+      <c r="J102" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K102">
+        <v>0.000693423996891595</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>38</v>
+      </c>
+      <c r="AB102" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC102">
+        <v>0.00686530725033475</v>
+      </c>
+      <c r="AD102">
+        <v>1</v>
+      </c>
+      <c r="AE102">
+        <v>1</v>
+      </c>
+      <c r="AF102">
+        <v>1</v>
+      </c>
+      <c r="AG102">
+        <v>0</v>
+      </c>
+      <c r="AH102" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI102">
+        <v>38</v>
+      </c>
+      <c r="AT102" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU102">
+        <v>0.007189828718676555</v>
+      </c>
+      <c r="AV102">
+        <v>1</v>
+      </c>
+      <c r="AW102">
+        <v>1</v>
+      </c>
+      <c r="AX102">
+        <v>1</v>
+      </c>
+      <c r="AY102">
+        <v>0</v>
+      </c>
+      <c r="AZ102" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA102">
+        <v>38</v>
+      </c>
+      <c r="BL102" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BM102">
+        <v>0.007328393293604225</v>
+      </c>
+      <c r="BN102">
+        <v>1</v>
+      </c>
+      <c r="BO102">
+        <v>1</v>
+      </c>
+      <c r="BP102">
+        <v>1</v>
+      </c>
+      <c r="BQ102">
+        <v>0</v>
+      </c>
+      <c r="BR102" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS102">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="10:71">
+      <c r="J103" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K103">
+        <v>0.0003129299716761527</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>112</v>
+      </c>
+      <c r="AB103" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC103">
+        <v>0.002596124590462721</v>
+      </c>
+      <c r="AD103">
+        <v>1</v>
+      </c>
+      <c r="AE103">
+        <v>1</v>
+      </c>
+      <c r="AF103">
+        <v>1</v>
+      </c>
+      <c r="AG103">
+        <v>0</v>
+      </c>
+      <c r="AH103" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>112</v>
+      </c>
+      <c r="AT103" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU103">
+        <v>0.002718842792776847</v>
+      </c>
+      <c r="AV103">
+        <v>1</v>
+      </c>
+      <c r="AW103">
+        <v>1</v>
+      </c>
+      <c r="AX103">
+        <v>1</v>
+      </c>
+      <c r="AY103">
+        <v>0</v>
+      </c>
+      <c r="AZ103" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA103">
+        <v>112</v>
+      </c>
+      <c r="BL103" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BM103">
+        <v>0.002771241161446975</v>
+      </c>
+      <c r="BN103">
+        <v>1</v>
+      </c>
+      <c r="BO103">
+        <v>1</v>
+      </c>
+      <c r="BP103">
+        <v>1</v>
+      </c>
+      <c r="BQ103">
+        <v>0</v>
+      </c>
+      <c r="BR103" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS103">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="104" spans="10:71">
+      <c r="J104" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K104">
+        <v>8.154846985595131E-05</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>157</v>
+      </c>
+      <c r="AB104" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC104">
+        <v>0</v>
+      </c>
+      <c r="AD104">
+        <v>1</v>
+      </c>
+      <c r="AE104">
+        <v>1</v>
+      </c>
+      <c r="AF104">
+        <v>1</v>
+      </c>
+      <c r="AG104">
+        <v>0</v>
+      </c>
+      <c r="AH104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI104">
+        <v>157</v>
+      </c>
+      <c r="AT104" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU104">
+        <v>0</v>
+      </c>
+      <c r="AV104">
+        <v>1</v>
+      </c>
+      <c r="AW104">
+        <v>1</v>
+      </c>
+      <c r="AX104">
+        <v>1</v>
+      </c>
+      <c r="AY104">
+        <v>0</v>
+      </c>
+      <c r="AZ104" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA104">
+        <v>157</v>
+      </c>
+      <c r="BL104" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BM104">
+        <v>0</v>
+      </c>
+      <c r="BN104">
+        <v>1</v>
+      </c>
+      <c r="BO104">
+        <v>1</v>
+      </c>
+      <c r="BP104">
+        <v>1</v>
+      </c>
+      <c r="BQ104">
+        <v>0</v>
+      </c>
+      <c r="BR104" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS104">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
